--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mengyao @ Carnegie\research\models\SEM-1-master 180626\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2FF1AB47-6D3B-4526-B8DC-8E650CC0DF20}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ACF5BD-A862-4DC2-8E6C-A70FBD5035BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15500" windowHeight="7940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Note that costs of technologies with associated capacity files (e.g., wind solar) are assumed to be of the form where fixed costs the cost of hour of acheiveing the potential generation in the associated capacity file (i.e., there is no further normalization within the code).</t>
   </si>
   <si>
-    <t>All power-related (i.e., generation) costs  are in terms of $/kWh dipatched</t>
-  </si>
-  <si>
     <t>Variable cost of energy storage (dispatch_cost_storage) is in units of $/hr per kWh stored.</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>GLOBAL_NAME</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
     <t>GLOBAL_NAME will be the name of the folder containing key output, name of pickle file, etc</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>DATA_PATH</t>
   </si>
   <si>
-    <t>Input_Data/Clack_EIA</t>
-  </si>
-  <si>
     <t>DATA_PATH is where the input data will reside. It is prepended to the wind, solar, and demand file specifications listed in the cases. (no trailing slash)</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>DEMAND_FILE</t>
   </si>
   <si>
-    <t>demand_series_EIA_normalized_to_1_mean_synthetic_Clack.csv</t>
-  </si>
-  <si>
     <t>START_YEAR</t>
   </si>
   <si>
@@ -166,15 +154,9 @@
     <t>SOLAR_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>solar_series_Clack_normalized_to_1_mean.csv</t>
-  </si>
-  <si>
     <t>CAPACITY_COST_SOLAR</t>
   </si>
   <si>
-    <t>$/kW</t>
-  </si>
-  <si>
     <t>DISPATCH_COST_SOLAR</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>WIND_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>wind_series_Clack_normalized_to_1_mean.csv</t>
-  </si>
-  <si>
     <t>CAPACITY_COST_WIND</t>
   </si>
   <si>
@@ -269,12 +248,84 @@
   </si>
   <si>
     <t>Note: values provided below will override values given above.</t>
+  </si>
+  <si>
+    <t>Input_Data/Shaner-et-al_E&amp;ES2018</t>
+  </si>
+  <si>
+    <t>solar_series_Shaner_normalized_to_0.2_mean.csv</t>
+  </si>
+  <si>
+    <t>wind_series_Shaner_normalized_to_0.38_mean.csv</t>
+  </si>
+  <si>
+    <t>demand_series_Shaner_normalized_to_1_mean.csv</t>
+  </si>
+  <si>
+    <t>CAPACITY_COST_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>DISPATCH_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>DISPATCH_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>PGP_STORAGE_CHARGING_EFFICIENCY</t>
+  </si>
+  <si>
+    <t>CAPACITY_COST_PGP_FUEL_CELL</t>
+  </si>
+  <si>
+    <t>1e-6 adds on about 1 cent per kWh if used one cycle per year</t>
+  </si>
+  <si>
+    <t>This will add 1 cent per h per kW capacity</t>
+  </si>
+  <si>
+    <t>0.01 means 1 cent per hour per kW capacity</t>
+  </si>
+  <si>
+    <t>($/h)/kW</t>
+  </si>
+  <si>
+    <t>battery01</t>
+  </si>
+  <si>
+    <t>battery003</t>
+  </si>
+  <si>
+    <t>battery1</t>
+  </si>
+  <si>
+    <t>battery03</t>
+  </si>
+  <si>
+    <t>0.012 is default value for NGCC, 0.027 is default value for NGCC + CCS</t>
+  </si>
+  <si>
+    <t>0.021 is default value</t>
+  </si>
+  <si>
+    <t>0.020 is default value</t>
+  </si>
+  <si>
+    <t>All power-related (i.e., generation) costs  are in terms of $/kWh dispatched</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>0.062 is default value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,30 +834,30 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1162,712 +1213,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="8"/>
-    <col min="3" max="16384" width="16.6328125" style="1"/>
+    <col min="1" max="1" width="36.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.73046875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.53125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="9" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="10" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="10" t="b">
+      <c r="B43" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="10" t="b">
+      <c r="B45" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="5"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="12">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="12">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="12">
+        <v>24</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="11">
-        <v>1000000000</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1000000000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="10">
-        <v>2006</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="10">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="10">
-        <v>2006</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="10">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="10">
-        <v>31</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="10">
-        <v>24</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
+      <c r="B67" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="5"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+      <c r="B73" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B74" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="B76" s="14">
+        <v>8.1211742157245251E-3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="10">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B77" s="12">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="B78" s="12">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="10">
-        <v>3</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="B79" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="B80" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="10">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="10">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="12">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="12">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="12">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C91" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B81" s="10">
-        <v>4</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C85" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="6">
-        <v>1</v>
-      </c>
-      <c r="B89" s="11">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C89" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F89" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="G89" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H89" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I89" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J89" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="N89" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="9"/>
-    </row>
-    <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mengyao @ Carnegie\research\models\SEM-1-master 180626\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2FF1AB47-6D3B-4526-B8DC-8E650CC0DF20}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206241D6-51A2-4E3D-B1B0-8A0B5A0B74B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15500" windowHeight="7940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Note that costs of technologies with associated capacity files (e.g., wind solar) are assumed to be of the form where fixed costs the cost of hour of acheiveing the potential generation in the associated capacity file (i.e., there is no further normalization within the code).</t>
   </si>
   <si>
-    <t>All power-related (i.e., generation) costs  are in terms of $/kWh dipatched</t>
-  </si>
-  <si>
     <t>Variable cost of energy storage (dispatch_cost_storage) is in units of $/hr per kWh stored.</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>GLOBAL_NAME</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
     <t>GLOBAL_NAME will be the name of the folder containing key output, name of pickle file, etc</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>DATA_PATH</t>
   </si>
   <si>
-    <t>Input_Data/Clack_EIA</t>
-  </si>
-  <si>
     <t>DATA_PATH is where the input data will reside. It is prepended to the wind, solar, and demand file specifications listed in the cases. (no trailing slash)</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>DEMAND_FILE</t>
   </si>
   <si>
-    <t>demand_series_EIA_normalized_to_1_mean_synthetic_Clack.csv</t>
-  </si>
-  <si>
     <t>START_YEAR</t>
   </si>
   <si>
@@ -166,15 +154,9 @@
     <t>SOLAR_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>solar_series_Clack_normalized_to_1_mean.csv</t>
-  </si>
-  <si>
     <t>CAPACITY_COST_SOLAR</t>
   </si>
   <si>
-    <t>$/kW</t>
-  </si>
-  <si>
     <t>DISPATCH_COST_SOLAR</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>WIND_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>wind_series_Clack_normalized_to_1_mean.csv</t>
-  </si>
-  <si>
     <t>CAPACITY_COST_WIND</t>
   </si>
   <si>
@@ -269,12 +248,84 @@
   </si>
   <si>
     <t>Note: values provided below will override values given above.</t>
+  </si>
+  <si>
+    <t>Input_Data/Shaner-et-al_E&amp;ES2018</t>
+  </si>
+  <si>
+    <t>solar_series_Shaner_normalized_to_0.2_mean.csv</t>
+  </si>
+  <si>
+    <t>wind_series_Shaner_normalized_to_0.38_mean.csv</t>
+  </si>
+  <si>
+    <t>demand_series_Shaner_normalized_to_1_mean.csv</t>
+  </si>
+  <si>
+    <t>CAPACITY_COST_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>DISPATCH_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>DISPATCH_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>PGP_STORAGE_CHARGING_EFFICIENCY</t>
+  </si>
+  <si>
+    <t>CAPACITY_COST_PGP_FUEL_CELL</t>
+  </si>
+  <si>
+    <t>1e-6 adds on about 1 cent per kWh if used one cycle per year</t>
+  </si>
+  <si>
+    <t>This will add 1 cent per h per kW capacity</t>
+  </si>
+  <si>
+    <t>0.01 means 1 cent per hour per kW capacity</t>
+  </si>
+  <si>
+    <t>($/h)/kW</t>
+  </si>
+  <si>
+    <t>battery01</t>
+  </si>
+  <si>
+    <t>battery003</t>
+  </si>
+  <si>
+    <t>battery1</t>
+  </si>
+  <si>
+    <t>battery03</t>
+  </si>
+  <si>
+    <t>0.012 is default value for NGCC, 0.027 is default value for NGCC + CCS</t>
+  </si>
+  <si>
+    <t>0.021 is default value</t>
+  </si>
+  <si>
+    <t>0.020 is default value</t>
+  </si>
+  <si>
+    <t>All power-related (i.e., generation) costs  are in terms of $/kWh dispatched</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>0.062 is default value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,30 +834,30 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1162,712 +1213,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="8"/>
-    <col min="3" max="16384" width="16.6328125" style="1"/>
+    <col min="1" max="1" width="36.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.73046875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.53125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="9" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="10" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="10" t="b">
+      <c r="B43" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="10" t="b">
+      <c r="B45" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="5"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="12">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="12">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="12">
+        <v>24</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="5"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="11">
-        <v>1000000000</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1000000000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="10">
-        <v>2006</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="10">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="10">
-        <v>2006</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="10">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="10">
-        <v>31</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="10">
-        <v>24</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
+      <c r="B67" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="5"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+      <c r="B73" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B74" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="B76" s="14">
+        <v>8.1211742157245251E-3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="10">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B77" s="12">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="B78" s="12">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="10">
-        <v>3</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="B79" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="B80" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="10">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="10">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="12">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="12">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="12">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C91" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B81" s="10">
-        <v>4</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C85" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="6">
-        <v>1</v>
-      </c>
-      <c r="B89" s="11">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C89" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F89" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="G89" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H89" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I89" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J89" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="N89" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="9"/>
-    </row>
-    <row r="95" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mengyao @ Carnegie\research\models\SEM-1-master 180626\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206241D6-51A2-4E3D-B1B0-8A0B5A0B74B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799C2A4-F26B-4DC2-A727-3344E6CC5744}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,6 @@
     <t>This will add 1 cent per h per kW capacity</t>
   </si>
   <si>
-    <t>0.01 means 1 cent per hour per kW capacity</t>
-  </si>
-  <si>
     <t>($/h)/kW</t>
   </si>
   <si>
@@ -301,22 +298,25 @@
     <t>battery03</t>
   </si>
   <si>
-    <t>0.012 is default value for NGCC, 0.027 is default value for NGCC + CCS</t>
-  </si>
-  <si>
-    <t>0.021 is default value</t>
-  </si>
-  <si>
-    <t>0.020 is default value</t>
-  </si>
-  <si>
     <t>All power-related (i.e., generation) costs  are in terms of $/kWh dispatched</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>0.062 is default value</t>
+    <t>0.01953 is default value</t>
+  </si>
+  <si>
+    <t>0.02065 is default value</t>
+  </si>
+  <si>
+    <t>0.01184 is default value for NGCC, 0.027 is default value for NGCC + CCS</t>
+  </si>
+  <si>
+    <t>0.06243 is default value</t>
+  </si>
+  <si>
+    <t>0.00812 is the default value; 0.01 means 1 cent per hour per kW capacity</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -856,7 +856,7 @@
     <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1216,183 +1216,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.73046875" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.53125" style="1"/>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -1400,18 +1400,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -1422,12 +1422,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -1449,12 +1449,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="12"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>71</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>72</v>
       </c>
@@ -1487,10 +1487,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
@@ -1499,10 +1499,10 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
@@ -1511,13 +1511,13 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="12"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>38</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>39</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>41</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>42</v>
       </c>
@@ -1597,13 +1597,13 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="12"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>43</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>44</v>
       </c>
@@ -1621,13 +1621,13 @@
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>45</v>
       </c>
@@ -1640,13 +1640,13 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="12"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>47</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
@@ -1664,13 +1664,13 @@
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>50</v>
       </c>
@@ -1682,13 +1682,13 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
@@ -1696,13 +1696,13 @@
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -1714,13 +1714,13 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="12"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>54</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>55</v>
       </c>
@@ -1746,13 +1746,13 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="12"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
@@ -1760,13 +1760,13 @@
         <v>8.1211742157245251E-3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>57</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>58</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>59</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>60</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>63</v>
       </c>
@@ -1830,13 +1830,13 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="12"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
@@ -1844,13 +1844,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>0.01</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>81</v>
       </c>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>82</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
@@ -1898,13 +1898,13 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>65</v>
       </c>
@@ -1916,15 +1916,15 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>66</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>68</v>
       </c>
@@ -1941,48 +1941,48 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" s="8">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B100" s="11"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>70</v>
       </c>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799C2A4-F26B-4DC2-A727-3344E6CC5744}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2AC576-86CA-49BB-8A07-01DF39215CE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>0.00812 is the default value; 0.01 means 1 cent per hour per kW capacity</t>
+  </si>
+  <si>
+    <t>QUICKLOOK</t>
+  </si>
+  <si>
+    <t>QUICKLOOK is true if you want to use the newer postprocessing system.</t>
   </si>
 </sst>
 </file>
@@ -1214,185 +1220,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -1422,12 +1428,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -1449,97 +1455,98 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="B47" s="13">
         <v>1000000000</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="12">
-        <v>2006</v>
-      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="12">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55" s="12">
         <v>1</v>
@@ -1547,9 +1554,9 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="12">
         <v>1</v>
@@ -1557,230 +1564,228 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="12">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="12">
-        <v>12</v>
+        <v>2006</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="12">
+        <v>24</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>77</v>
-      </c>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B64" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B65" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>78</v>
-      </c>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B68" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B69" s="13">
         <v>2E-8</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B71" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B72" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B74" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B75" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B77" s="14">
         <v>8.1211742157245251E-3</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B77" s="12">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
@@ -1790,95 +1795,95 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="12">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B80" s="12">
         <v>0.9</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B81" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="1">
+      <c r="D81" s="2"/>
+      <c r="E81" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B82" s="12">
         <v>4</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B84" s="12">
         <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="12">
-        <v>0.01</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B85" s="12">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="B86" s="12">
         <v>0</v>
@@ -1888,102 +1893,114 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="12">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B88" s="12">
         <v>0.3</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B90" s="12">
         <v>10</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C92" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B96" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B97" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B98" s="8">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+    <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B99" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2AC576-86CA-49BB-8A07-01DF39215CE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF92F1-DE24-46FB-AD1F-7E5B10D858E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>QUICKLOOK is true if you want to use the newer postprocessing system.</t>
+  </si>
+  <si>
+    <t>NORMALIZE_DEMAND_TO_ONE</t>
+  </si>
+  <si>
+    <t>Normalize demand to 1.</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1473,90 +1479,91 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1000000000</v>
+        <v>30</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="13">
         <v>1000000000</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="2"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="12">
-        <v>2006</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="12">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56" s="12">
         <v>1</v>
@@ -1566,7 +1573,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="12">
         <v>1</v>
@@ -1576,228 +1583,226 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" s="12">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="12">
-        <v>12</v>
+        <v>2006</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12">
+        <v>24</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="14">
-        <v>1.9528741509529837E-2</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B66" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="14">
-        <v>2.0648572594225215E-2</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B70" s="13">
         <v>2E-8</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B73" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="14">
-        <v>6.2433901191501419E-2</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B76" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="14">
-        <v>8.1211742157245251E-3</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="12">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B78" s="14">
+        <v>8.1211742157245251E-3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="12">
         <v>0</v>
@@ -1809,93 +1814,93 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="12">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B81" s="12">
         <v>0.9</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B82" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1">
+      <c r="D82" s="2"/>
+      <c r="E82" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B83" s="12">
         <v>4</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B85" s="12">
-        <v>0.01</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B86" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="12">
         <v>0</v>
@@ -1907,100 +1912,112 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="12">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B89" s="12">
         <v>0.3</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-      <c r="B89" s="12"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B91" s="12">
         <v>10</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C93" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96" s="8">
-        <v>0.01</v>
-      </c>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B98" s="8">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B100" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="11"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF92F1-DE24-46FB-AD1F-7E5B10D858E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B91BA6A-90DC-441D-824D-08C0D376BC8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1455,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>29</v>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B91BA6A-90DC-441D-824D-08C0D376BC8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F8686-CA97-4F83-9668-9171EB0ABBC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="case_input" sheetId="1" r:id="rId1"/>
+    <sheet name="case_input - 2xNG" sheetId="1" r:id="rId1"/>
+    <sheet name="case_input - all" sheetId="2" r:id="rId2"/>
+    <sheet name="case_input - 2xNG,0.5xS,PGP,Nuc" sheetId="3" r:id="rId3"/>
+    <sheet name="case_input-2xNG,1W,0.75nuc,0.5r" sheetId="4" r:id="rId4"/>
+    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="107">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -274,30 +278,9 @@
     <t>PGP_STORAGE_CHARGING_EFFICIENCY</t>
   </si>
   <si>
-    <t>CAPACITY_COST_PGP_FUEL_CELL</t>
-  </si>
-  <si>
-    <t>1e-6 adds on about 1 cent per kWh if used one cycle per year</t>
-  </si>
-  <si>
-    <t>This will add 1 cent per h per kW capacity</t>
-  </si>
-  <si>
     <t>($/h)/kW</t>
   </si>
   <si>
-    <t>battery01</t>
-  </si>
-  <si>
-    <t>battery003</t>
-  </si>
-  <si>
-    <t>battery1</t>
-  </si>
-  <si>
-    <t>battery03</t>
-  </si>
-  <si>
     <t>All power-related (i.e., generation) costs  are in terms of $/kWh dispatched</t>
   </si>
   <si>
@@ -316,9 +299,6 @@
     <t>0.06243 is default value</t>
   </si>
   <si>
-    <t>0.00812 is the default value; 0.01 means 1 cent per hour per kW capacity</t>
-  </si>
-  <si>
     <t>QUICKLOOK</t>
   </si>
   <si>
@@ -329,6 +309,42 @@
   </si>
   <si>
     <t>Normalize demand to 1.</t>
+  </si>
+  <si>
+    <t>($/h)/kWh</t>
+  </si>
+  <si>
+    <t>If we assume $261/kWh capacity with a 8% cap recovery factor and 8760 hours per year (and 6 hour charge/discharge time)</t>
+  </si>
+  <si>
+    <t>from $1568/kW and $261/kWh from Davis et al 2018</t>
+  </si>
+  <si>
+    <t>2.7e-6 adds on about 2.4 cents per kWh if used one cycle per year</t>
+  </si>
+  <si>
+    <t>CAPACITY_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>CAPACITY_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrolyser $4600 per kW capital cost. Assume 8% capital recovery factor and 8760 hours per year = </t>
+  </si>
+  <si>
+    <t>0.02259 is the default value</t>
+  </si>
+  <si>
+    <t>example_2xNG</t>
+  </si>
+  <si>
+    <t>example_2xNG_1W_0.5rest</t>
+  </si>
+  <si>
+    <t>example_2xNG_1W_0.75Nuc_0.5rest</t>
+  </si>
+  <si>
+    <t>example_2xNG_1W_0.75Nuc_0.5rest_0.25PGP</t>
   </si>
 </sst>
 </file>
@@ -1226,185 +1242,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -1412,18 +1428,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -1434,12 +1450,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -1461,34 +1477,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B44" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -1510,7 +1526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -1521,10 +1537,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -1533,10 +1549,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -1545,13 +1561,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -1561,7 +1577,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1587,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1597,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -1591,7 +1607,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -1601,7 +1617,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -1611,7 +1627,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -1621,7 +1637,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -1631,13 +1647,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -1647,7 +1663,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -1655,13 +1671,13 @@
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -1674,13 +1690,13 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1706,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -1698,13 +1714,13 @@
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -1716,45 +1732,55 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="14">
+        <f>2*D72</f>
+        <v>2.3683774724983422E-2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="14">
-        <v>2.2590009128958689E-2</v>
+        <f>2*D73</f>
+        <v>4.5180018257917377E-2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -1762,13 +1788,13 @@
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
@@ -1780,27 +1806,28 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="14">
-        <v>8.1211742157245251E-3</v>
+      <c r="B78" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -1808,11 +1835,11 @@
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -1820,11 +1847,11 @@
         <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -1834,7 +1861,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -1852,113 +1879,129 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B83" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B85" s="12">
-        <v>9.9999999999999995E-7</v>
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B86" s="12">
-        <v>0.01</v>
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B87" s="12">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="B88" s="12">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="12">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B90" s="12">
         <v>0.3</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B92" s="12">
         <v>10</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>66</v>
       </c>
@@ -1967,57 +2010,3415 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="5" t="s">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="11"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
+  <dimension ref="A1:F103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="12">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="12">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="12">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="12">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="12">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="12">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="12">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="11"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA62ED0-6EC2-47C6-B9D2-B96060CC8109}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="12">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="12">
+        <f>0.5*D65</f>
+        <v>9.7643707547649186E-3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="12">
+        <f>0.5*D66</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="14">
+        <f>2*D72</f>
+        <v>2.3683774724983422E-2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="14">
+        <f>2*D73</f>
+        <v>4.5180018257917377E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="12">
+        <f>0.5*D75</f>
+        <v>3.1216950595750709E-2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="12">
+        <f>0.5*D76</f>
+        <v>1.2579080108084662E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="12">
+        <f>0.5*D78</f>
+        <v>1.1917808219178083E-3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="12">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="12">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="G82" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="12">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="12">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="12">
+        <f>0.5*D85</f>
+        <v>1.3698630136986302E-6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="12">
+        <f>0.5*D86</f>
+        <v>5.0228310502283104E-3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="12">
+        <f>0.5*D87</f>
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="12">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="12">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="12">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="12">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="11"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100A7673-67D2-4958-BFD7-27357000BA3C}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="8" t="s">
+      <c r="B44" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="12">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="12">
+        <f>0.5*D65</f>
+        <v>9.7643707547649186E-3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="12">
+        <f>0.5*D66</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="8">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="14">
+        <f>2*D72</f>
+        <v>2.3683774724983422E-2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="14">
+        <f>2*D73</f>
+        <v>4.5180018257917377E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="12">
+        <f>0.75*D75</f>
+        <v>4.6825425893626066E-2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="12">
+        <f>0.75*D76</f>
+        <v>1.8868620162126995E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="12">
+        <f>0.5*D78</f>
+        <v>1.1917808219178083E-3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="12">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="12">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="G82" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="12">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="12">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="12">
+        <f>0.5*D85</f>
+        <v>1.3698630136986302E-6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="12">
+        <f>0.5*D86</f>
+        <v>5.0228310502283104E-3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="12">
+        <f>0.5*D87</f>
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="12">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="12">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="12">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="12">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
+  <dimension ref="A1:G104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="12">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="12">
+        <f>0.5*D65</f>
+        <v>9.7643707547649186E-3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="12">
+        <f>0.5*D66</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="14">
+        <f>2*D72</f>
+        <v>2.3683774724983422E-2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="14">
+        <f>2*D73</f>
+        <v>4.5180018257917377E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="12">
+        <f>0.75*D75</f>
+        <v>4.6825425893626066E-2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="12">
+        <f>0.75*D76</f>
+        <v>1.8868620162126995E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="12">
+        <f>0.5*D78</f>
+        <v>1.1917808219178083E-3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="12">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="12">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="G82" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="12">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="12">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="12">
+        <f>0.25*D85</f>
+        <v>6.8493150684931511E-7</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="12">
+        <f t="shared" ref="B86:B87" si="0">0.25*D86</f>
+        <v>2.5114155251141552E-3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0502283105022832E-2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="12">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="12">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="12">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="12">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="11"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F8686-CA97-4F83-9668-9171EB0ABBC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C638B-AEFE-4631-B32A-5C1388A22212}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input - 2xNG" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="109">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>example_2xNG_1W_0.75Nuc_0.5rest_0.25PGP</t>
+  </si>
+  <si>
+    <t>example_1W_0.75Nuc_0.5rest_0.25PGP</t>
+  </si>
+  <si>
+    <t>example1</t>
   </si>
 </sst>
 </file>
@@ -1248,179 +1254,179 @@
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -1450,12 +1456,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -1488,12 +1494,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -1537,10 +1543,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -1549,10 +1555,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -1561,13 +1567,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -1577,7 +1583,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -1587,7 +1593,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1603,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1613,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -1627,7 +1633,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -1637,7 +1643,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -1647,13 +1653,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1669,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -1690,13 +1696,13 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -1706,7 +1712,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -1732,13 +1738,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -1774,13 +1780,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
@@ -1806,13 +1812,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -1839,7 +1845,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -1851,7 +1857,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -1861,7 +1867,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
@@ -1893,13 +1899,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>100</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
@@ -1956,7 +1962,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>82</v>
       </c>
@@ -1968,7 +1974,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -1978,13 +1984,13 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -1996,12 +2002,12 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C93" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>66</v>
       </c>
@@ -2010,26 +2016,26 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B99" s="11"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>70</v>
       </c>
@@ -2048,179 +2054,179 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -2250,12 +2256,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -2288,12 +2294,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -2337,10 +2343,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -2349,10 +2355,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -2361,13 +2367,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -2377,7 +2383,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2393,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -2397,7 +2403,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +2413,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -2417,7 +2423,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2433,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -2437,7 +2443,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -2447,13 +2453,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2469,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -2490,13 +2496,13 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -2506,7 +2512,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -2532,13 +2538,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2564,13 +2570,13 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
@@ -2596,13 +2602,13 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -2629,7 +2635,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -2641,7 +2647,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -2651,7 +2657,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
@@ -2683,13 +2689,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>100</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
@@ -2746,7 +2752,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2764,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -2768,13 +2774,13 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -2786,12 +2792,12 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C93" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>66</v>
       </c>
@@ -2800,26 +2806,26 @@
       </c>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B99" s="11"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>70</v>
       </c>
@@ -2838,179 +2844,179 @@
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -3040,12 +3046,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -3078,12 +3084,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -3127,10 +3133,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -3139,10 +3145,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -3151,13 +3157,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -3167,7 +3173,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -3177,7 +3183,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -3187,7 +3193,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -3197,7 +3203,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -3207,7 +3213,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -3217,7 +3223,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -3227,7 +3233,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -3237,13 +3243,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -3253,7 +3259,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -3290,13 +3296,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -3306,7 +3312,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -3332,13 +3338,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -3374,13 +3380,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
@@ -3414,13 +3420,13 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -3454,7 +3460,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -3469,7 +3475,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -3482,7 +3488,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>7.3048000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
@@ -3517,13 +3523,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>100</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
@@ -3595,7 +3601,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>82</v>
       </c>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="12"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -3645,19 +3651,19 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C94" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>66</v>
       </c>
@@ -3666,26 +3672,26 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B100" s="11"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>70</v>
       </c>
@@ -3704,179 +3710,179 @@
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -3895,7 +3901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -3906,12 +3912,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -3944,12 +3950,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -3993,10 +3999,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -4005,10 +4011,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -4017,13 +4023,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -4033,7 +4039,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -4043,7 +4049,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -4053,7 +4059,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -4063,7 +4069,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -4073,7 +4079,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -4083,7 +4089,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -4093,7 +4099,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -4103,13 +4109,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -4119,7 +4125,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -4156,13 +4162,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -4172,7 +4178,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -4198,13 +4204,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -4240,13 +4246,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
@@ -4280,13 +4286,13 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -4320,7 +4326,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -4335,7 +4341,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -4348,7 +4354,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>7.3048000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
@@ -4383,13 +4389,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -4427,7 +4433,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>100</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
@@ -4461,7 +4467,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>82</v>
       </c>
@@ -4476,7 +4482,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -4489,14 +4495,14 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="12"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -4511,19 +4517,19 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C94" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>66</v>
       </c>
@@ -4532,26 +4538,26 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B100" s="11"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>70</v>
       </c>
@@ -4564,185 +4570,185 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B87"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.5703125" style="1"/>
+    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -4750,18 +4756,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -4772,12 +4778,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -4810,12 +4816,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -4859,10 +4865,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -4871,10 +4877,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -4883,13 +4889,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -4899,7 +4905,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -4909,7 +4915,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -4919,7 +4925,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -4929,7 +4935,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -4939,7 +4945,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -4949,7 +4955,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -4959,7 +4965,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -4969,13 +4975,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -4985,13 +4991,12 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="12">
-        <f>0.5*D65</f>
-        <v>9.7643707547649186E-3</v>
+      <c r="B65" s="14">
+        <v>1.9528741509529837E-2</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>84</v>
@@ -5003,13 +5008,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="12">
-        <f>0.5*D66</f>
-        <v>5.0000000000000001E-9</v>
+      <c r="B66" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>49</v>
@@ -5022,13 +5027,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -5038,7 +5043,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -5064,19 +5069,18 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="14">
-        <f>2*D72</f>
-        <v>2.3683774724983422E-2</v>
+        <v>1.1841887362491711E-2</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>84</v>
@@ -5088,13 +5092,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="14">
-        <f>2*D73</f>
-        <v>4.5180018257917377E-2</v>
+        <v>2.2590009128958689E-2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>49</v>
@@ -5106,19 +5109,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="12">
-        <f>0.75*D75</f>
-        <v>4.6825425893626066E-2</v>
+      <c r="B75" s="14">
+        <v>6.2433901191501419E-2</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>84</v>
@@ -5130,13 +5132,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="12">
-        <f>0.75*D76</f>
-        <v>1.8868620162126995E-2</v>
+      <c r="B76" s="14">
+        <v>2.5158160216169324E-2</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>49</v>
@@ -5146,19 +5147,19 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B78" s="12">
-        <f>0.5*D78</f>
-        <v>1.1917808219178083E-3</v>
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>95</v>
@@ -5171,7 +5172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -5186,7 +5187,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -5201,7 +5202,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -5214,7 +5215,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>7.3048000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
@@ -5249,19 +5250,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B85" s="12">
-        <f>0.25*D85</f>
-        <v>6.8493150684931511E-7</v>
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>95</v>
@@ -5274,13 +5275,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="12">
-        <f t="shared" ref="B86:B87" si="0">0.25*D86</f>
-        <v>2.5114155251141552E-3</v>
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>84</v>
@@ -5293,13 +5294,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B87" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0502283105022832E-2</v>
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>84</v>
@@ -5312,7 +5313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
@@ -5327,7 +5328,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>82</v>
       </c>
@@ -5342,7 +5343,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -5355,14 +5356,14 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="12"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -5377,19 +5378,19 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C94" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>66</v>
       </c>
@@ -5398,27 +5399,122 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="B98" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="6">
+        <v>2</v>
+      </c>
+      <c r="E98" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>2</v>
+      </c>
+      <c r="E99" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="J99" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192C638B-AEFE-4631-B32A-5C1388A22212}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00E2A6-A692-4D0B-A893-7BB3016C1EF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="case_input - 2xNG" sheetId="1" r:id="rId1"/>
-    <sheet name="case_input - all" sheetId="2" r:id="rId2"/>
-    <sheet name="case_input - 2xNG,0.5xS,PGP,Nuc" sheetId="3" r:id="rId3"/>
-    <sheet name="case_input-2xNG,1W,0.75nuc,0.5r" sheetId="4" r:id="rId4"/>
-    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId5"/>
+    <sheet name="default" sheetId="2" r:id="rId1"/>
+    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId2"/>
+    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="118">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -335,15 +333,6 @@
     <t>0.02259 is the default value</t>
   </si>
   <si>
-    <t>example_2xNG</t>
-  </si>
-  <si>
-    <t>example_2xNG_1W_0.5rest</t>
-  </si>
-  <si>
-    <t>example_2xNG_1W_0.75Nuc_0.5rest</t>
-  </si>
-  <si>
     <t>example_2xNG_1W_0.75Nuc_0.5rest_0.25PGP</t>
   </si>
   <si>
@@ -351,6 +340,42 @@
   </si>
   <si>
     <t>example1</t>
+  </si>
+  <si>
+    <t>All global variables (not case specific) are specified after 'BEGIN GLOBAL DATA'</t>
+  </si>
+  <si>
+    <t>All default technology costs and characteristics are specified after 'BEGIN ALL CASES DATA'</t>
+  </si>
+  <si>
+    <t>After 'BEGIN CASE DATA' enter the ratios of the case to the default value (i.e., if something is twice as expensive or twice as efficient, enter a 2)</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>NoSolar</t>
+  </si>
+  <si>
+    <t>NoWind</t>
+  </si>
+  <si>
+    <t>NoNatgas</t>
+  </si>
+  <si>
+    <t>NoNuclear</t>
+  </si>
+  <si>
+    <t>OnlySolar</t>
+  </si>
+  <si>
+    <t>OnlyWind</t>
+  </si>
+  <si>
+    <t>OnlyNatgas</t>
+  </si>
+  <si>
+    <t>OnlyNuclear</t>
   </si>
 </sst>
 </file>
@@ -1247,11 +1272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,19 +1306,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -1302,16 +1327,19 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
@@ -1320,7 +1348,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -1329,31 +1357,31 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -1362,7 +1390,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -1371,7 +1399,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -1380,7 +1408,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -1389,7 +1417,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -1398,100 +1426,80 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="12" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="12" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1501,121 +1509,119 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B52" s="13">
         <v>1000000000</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1</v>
-      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="12">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -1625,377 +1631,367 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B60" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B61" s="12">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B62" s="12">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="14">
-        <v>1.9528741509529837E-2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="13">
-        <f>0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B69" s="14">
-        <v>2.0648572594225215E-2</v>
+        <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B70" s="13">
-        <v>2E-8</v>
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="14">
-        <f>2*D72</f>
-        <v>2.3683774724983422E-2</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="14">
-        <f>2*D73</f>
-        <v>4.5180018257917377E-2</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="14">
-        <v>2.2590009128958689E-2</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="12">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="12">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1">
-        <v>7.3048000000000002E-3</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B83" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="12">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="12">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B92" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>84</v>
@@ -2003,40 +1999,80 @@
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
       <c r="C93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B98" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2047,11 +2083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
-  <dimension ref="A1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907549-D3C5-4AC6-B75C-E35B549A753D}">
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2081,19 +2117,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -2102,16 +2138,19 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
@@ -2120,7 +2159,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -2129,31 +2168,31 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -2162,7 +2201,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -2171,7 +2210,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -2180,7 +2219,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -2189,7 +2228,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -2198,100 +2237,80 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="12" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="12" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2301,121 +2320,119 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B52" s="13">
         <v>1000000000</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1</v>
-      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="12">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -2425,75 +2442,72 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B60" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B61" s="12">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B62" s="12">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="14">
-        <v>1.9528741509529837E-2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="13">
-        <f>0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2504,37 +2518,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B69" s="14">
-        <v>2.0648572594225215E-2</v>
+        <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B70" s="13">
-        <v>2E-8</v>
+        <f>0.00000001</f>
+        <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2546,246 +2561,248 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B73" s="14">
-        <v>2.2590009128958689E-2</v>
+        <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="14">
-        <v>6.2433901191501419E-2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="12">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="12">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1">
-        <v>7.3048000000000002E-3</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B83" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="12">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="12">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B92" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>84</v>
@@ -2793,40 +2810,256 @@
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
       <c r="C93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B98" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="B99" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="6">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+      <c r="E105" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="6">
+        <f>-1*B102</f>
+        <v>1</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" ref="C106:E106" si="0">-1*C102</f>
+        <v>-1</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="6">
+        <f t="shared" ref="B107:E107" si="1">-1*B103</f>
+        <v>-1</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E107" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="6">
+        <f t="shared" ref="B108:E108" si="2">-1*B104</f>
+        <v>-1</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="6">
+        <f t="shared" ref="B109:E109" si="3">-1*B105</f>
+        <v>-1</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E109" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2837,11 +3070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA62ED0-6EC2-47C6-B9D2-B96060CC8109}">
-  <dimension ref="A1:G104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3029,1739 +3262,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="12">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="12">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="12">
-        <v>31</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="12">
-        <v>24</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="12">
-        <f>0.5*D65</f>
-        <v>9.7643707547649186E-3</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="14">
-        <v>1.9528741509529837E-2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="12">
-        <f>0.5*D66</f>
-        <v>5.0000000000000001E-9</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="13">
-        <f>0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="14">
-        <v>2.0648572594225215E-2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="13">
-        <v>2E-8</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="14">
-        <f>2*D72</f>
-        <v>2.3683774724983422E-2</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="14">
-        <f>2*D73</f>
-        <v>4.5180018257917377E-2</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="14">
-        <v>2.2590009128958689E-2</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="12">
-        <f>0.5*D75</f>
-        <v>3.1216950595750709E-2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="14">
-        <v>6.2433901191501419E-2</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="12">
-        <f>0.5*D76</f>
-        <v>1.2579080108084662E-2</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="14">
-        <v>2.5158160216169324E-2</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="12">
-        <f>0.5*D78</f>
-        <v>1.1917808219178083E-3</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="12">
-        <f>261*0.08/8760</f>
-        <v>2.3835616438356165E-3</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="12">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="12">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="12">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="12">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="G82" s="1">
-        <v>7.3048000000000002E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="12">
-        <v>6</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="12">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85" s="12">
-        <f>0.5*D85</f>
-        <v>1.3698630136986302E-6</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="12">
-        <f>0.3*0.08/8760</f>
-        <v>2.7397260273972604E-6</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="12">
-        <f>0.5*D86</f>
-        <v>5.0228310502283104E-3</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="12">
-        <f>1100*0.08/8760</f>
-        <v>1.0045662100456621E-2</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="12">
-        <f>0.5*D87</f>
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="12">
-        <f>4600*0.08/8760</f>
-        <v>4.2009132420091327E-2</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="12">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="12">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="12">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="12">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B92" s="12">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="12">
-        <v>10</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C94" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100A7673-67D2-4958-BFD7-27357000BA3C}">
-  <dimension ref="A1:G104"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1000000000</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="12">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="12">
-        <v>2006</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="12">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="12">
-        <v>31</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="12">
-        <v>24</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="12">
-        <f>0.5*D65</f>
-        <v>9.7643707547649186E-3</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="14">
-        <v>1.9528741509529837E-2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="12">
-        <f>0.5*D66</f>
-        <v>5.0000000000000001E-9</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="13">
-        <f>0.00000001</f>
-        <v>1E-8</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="14">
-        <v>2.0648572594225215E-2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="13">
-        <v>2E-8</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="14">
-        <f>2*D72</f>
-        <v>2.3683774724983422E-2</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="14">
-        <v>1.1841887362491711E-2</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="14">
-        <f>2*D73</f>
-        <v>4.5180018257917377E-2</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="14">
-        <v>2.2590009128958689E-2</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="12">
-        <f>0.75*D75</f>
-        <v>4.6825425893626066E-2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="14">
-        <v>6.2433901191501419E-2</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="12">
-        <f>0.75*D76</f>
-        <v>1.8868620162126995E-2</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="14">
-        <v>2.5158160216169324E-2</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="12">
-        <f>0.5*D78</f>
-        <v>1.1917808219178083E-3</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="12">
-        <f>261*0.08/8760</f>
-        <v>2.3835616438356165E-3</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="12">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="12">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="12">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="12">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="G82" s="1">
-        <v>7.3048000000000002E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="12">
-        <v>6</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="12">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85" s="12">
-        <f>0.5*D85</f>
-        <v>1.3698630136986302E-6</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="12">
-        <f>0.3*0.08/8760</f>
-        <v>2.7397260273972604E-6</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="12">
-        <f>0.5*D86</f>
-        <v>5.0228310502283104E-3</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="12">
-        <f>1100*0.08/8760</f>
-        <v>1.0045662100456621E-2</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="12">
-        <f>0.5*D87</f>
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="12">
-        <f>4600*0.08/8760</f>
-        <v>4.2009132420091327E-2</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="12">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="12">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="12">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="12">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B92" s="12">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="12">
-        <v>10</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C94" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
-  <dimension ref="A1:K105"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
@@ -5439,7 +3940,7 @@
     </row>
     <row r="98" spans="1:11" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B98" s="6">
         <v>0.5</v>
@@ -5474,7 +3975,7 @@
     </row>
     <row r="99" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="6">
         <v>-1</v>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00E2A6-A692-4D0B-A893-7BB3016C1EF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3167F257-9125-4323-9B1B-0E15D22DA523}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21590" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,18 @@
     <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="119">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -376,6 +383,9 @@
   </si>
   <si>
     <t>OnlyNuclear</t>
+  </si>
+  <si>
+    <t>"BEGIN_CASE_DATA" is a keyword that must be in the first column of the file. The next row must contain keywords. Definitions here will multiply times values in  &lt;BEGIN_ALL_CASES_DATA&gt;. There must be at least one row here, because this is how the number of cases gets defined.</t>
   </si>
 </sst>
 </file>
@@ -1275,204 +1285,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
@@ -1502,12 +1512,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>26</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>91</v>
       </c>
@@ -1540,12 +1550,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="12"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
@@ -1567,7 +1577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>71</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>72</v>
       </c>
@@ -1589,10 +1599,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
@@ -1601,10 +1611,10 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -1613,13 +1623,13 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="12"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1639,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +1649,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1659,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>38</v>
       </c>
@@ -1659,7 +1669,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
@@ -1669,7 +1679,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +1689,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1699,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>42</v>
       </c>
@@ -1699,13 +1709,13 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>43</v>
       </c>
@@ -1715,7 +1725,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>44</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>45</v>
       </c>
@@ -1742,13 +1752,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>47</v>
       </c>
@@ -1758,7 +1768,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>48</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>50</v>
       </c>
@@ -1784,13 +1794,13 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="12"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
@@ -1804,7 +1814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -1816,13 +1826,13 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="12"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>54</v>
       </c>
@@ -1836,7 +1846,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>55</v>
       </c>
@@ -1848,13 +1858,13 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="12"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
@@ -1869,7 +1879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1891,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>58</v>
       </c>
@@ -1893,7 +1903,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>59</v>
       </c>
@@ -1903,7 +1913,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>60</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>63</v>
       </c>
@@ -1935,13 +1945,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>80</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>99</v>
       </c>
@@ -1971,7 +1981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>100</v>
       </c>
@@ -1986,7 +1996,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>81</v>
       </c>
@@ -1998,7 +2008,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>82</v>
       </c>
@@ -2010,7 +2020,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>83</v>
       </c>
@@ -2020,13 +2030,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="12"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>65</v>
       </c>
@@ -2038,40 +2048,40 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B103" s="11"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>70</v>
       </c>
@@ -2086,204 +2096,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907549-D3C5-4AC6-B75C-E35B549A753D}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>23</v>
       </c>
@@ -2313,12 +2323,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>26</v>
       </c>
@@ -2329,7 +2339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>91</v>
       </c>
@@ -2351,12 +2361,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="12"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>71</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>72</v>
       </c>
@@ -2400,10 +2410,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2412,10 +2422,10 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -2424,13 +2434,13 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="12"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>35</v>
       </c>
@@ -2440,7 +2450,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
@@ -2450,7 +2460,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -2460,7 +2470,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>38</v>
       </c>
@@ -2470,7 +2480,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2490,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +2500,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>41</v>
       </c>
@@ -2500,7 +2510,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>42</v>
       </c>
@@ -2510,13 +2520,13 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>43</v>
       </c>
@@ -2526,7 +2536,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>44</v>
       </c>
@@ -2540,7 +2550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>45</v>
       </c>
@@ -2553,13 +2563,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>47</v>
       </c>
@@ -2569,7 +2579,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>48</v>
       </c>
@@ -2583,7 +2593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>50</v>
       </c>
@@ -2595,13 +2605,13 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="12"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2627,13 +2637,13 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="12"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>55</v>
       </c>
@@ -2659,13 +2669,13 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="12"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
@@ -2680,7 +2690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>57</v>
       </c>
@@ -2692,7 +2702,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>58</v>
       </c>
@@ -2704,7 +2714,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>59</v>
       </c>
@@ -2714,7 +2724,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>60</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>63</v>
       </c>
@@ -2746,13 +2756,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>80</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>99</v>
       </c>
@@ -2782,7 +2792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>100</v>
       </c>
@@ -2797,7 +2807,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>81</v>
       </c>
@@ -2809,7 +2819,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>82</v>
       </c>
@@ -2821,7 +2831,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>83</v>
       </c>
@@ -2831,13 +2841,13 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="12"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>65</v>
       </c>
@@ -2849,12 +2859,12 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>66</v>
       </c>
@@ -2863,7 +2873,7 @@
       </c>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
@@ -2880,10 +2890,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>109</v>
       </c>
@@ -2900,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>110</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>111</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>112</v>
       </c>
@@ -2951,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>113</v>
       </c>
@@ -2968,7 +2978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>114</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>115</v>
       </c>
@@ -3010,7 +3020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>116</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>117</v>
       </c>
@@ -3052,13 +3062,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B111" s="11"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>70</v>
       </c>
@@ -3077,179 +3087,179 @@
       <selection activeCell="B96" sqref="B96:G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="16.54296875" style="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="10"/>
     </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -3257,7 +3267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -3268,7 +3278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -3279,12 +3289,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -3295,7 +3305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
@@ -3306,7 +3316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -3317,12 +3327,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -3344,7 +3354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>72</v>
       </c>
@@ -3366,10 +3376,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -3378,10 +3388,10 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -3390,13 +3400,13 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -3406,7 +3416,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -3416,7 +3426,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -3426,7 +3436,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>38</v>
       </c>
@@ -3436,7 +3446,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
@@ -3446,7 +3456,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -3456,7 +3466,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -3466,7 +3476,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -3476,13 +3486,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>43</v>
       </c>
@@ -3492,7 +3502,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -3528,13 +3538,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>47</v>
       </c>
@@ -3544,7 +3554,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -3558,7 +3568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>50</v>
       </c>
@@ -3570,13 +3580,13 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -3610,13 +3620,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>55</v>
       </c>
@@ -3648,13 +3658,13 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>57</v>
       </c>
@@ -3688,7 +3698,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>58</v>
       </c>
@@ -3703,7 +3713,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3726,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>7.3048000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>63</v>
       </c>
@@ -3751,13 +3761,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>100</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>81</v>
       </c>
@@ -3829,7 +3839,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>82</v>
       </c>
@@ -3844,7 +3854,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -3857,14 +3867,14 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="12"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -3879,19 +3889,19 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>66</v>
       </c>
@@ -3900,7 +3910,7 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>68</v>
       </c>
@@ -3935,10 +3945,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:11" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>103</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>104</v>
       </c>
@@ -4008,13 +4018,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B101" s="11"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>70</v>
       </c>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3167F257-9125-4323-9B1B-0E15D22DA523}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C006C-7BAE-4002-B60F-78A1530E47F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
-    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId2"/>
-    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId3"/>
+    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId2"/>
+    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId3"/>
+    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="121">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -386,6 +380,12 @@
   </si>
   <si>
     <t>"BEGIN_CASE_DATA" is a keyword that must be in the first column of the file. The next row must contain keywords. Definitions here will multiply times values in  &lt;BEGIN_ALL_CASES_DATA&gt;. There must be at least one row here, because this is how the number of cases gets defined.</t>
+  </si>
+  <si>
+    <t>3daysolarbatt</t>
+  </si>
+  <si>
+    <t>3daynatgasbatt</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
@@ -2093,10 +2093,875 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8DEE5D-D4A0-4BC5-A916-79B06806B187}">
+  <dimension ref="A1:F108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="12">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F102" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="108" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907549-D3C5-4AC6-B75C-E35B549A753D}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
   <dimension ref="A1:K105"/>
   <sheetViews>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C006C-7BAE-4002-B60F-78A1530E47F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63430C-0C8C-467A-9984-DB7F0065BCDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,13 @@
     <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,18 +47,12 @@
     <t>Keyword names are case insensitive.</t>
   </si>
   <si>
-    <t>To reduce errors, if one keyword exists relevant to a technology, all keywords for that technology must be defined (i.e., if you have capacity_cost_wind, you must have a dispatch_cost_wind).</t>
-  </si>
-  <si>
     <t>All energy-related (i.e., capacity) costs are in terms of $/hr per kW capacity, except for variable generators (wind and solar) it is cost per hour of deployment at the level of the associated capacity file.</t>
   </si>
   <si>
     <t>Note that costs of technologies with associated capacity files (e.g., wind solar) are assumed to be of the form where fixed costs the cost of hour of acheiveing the potential generation in the associated capacity file (i.e., there is no further normalization within the code).</t>
   </si>
   <si>
-    <t>Variable cost of energy storage (dispatch_cost_storage) is in units of $/hr per kWh stored.</t>
-  </si>
-  <si>
     <t>If the fixed cost for a technology is entered as a negative value, then that technology is assumed not to participate in the optimization.</t>
   </si>
   <si>
@@ -154,54 +155,15 @@
     <t>END_HOUR</t>
   </si>
   <si>
-    <t>SOLAR_CAPACITY_FILE</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_SOLAR</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_SOLAR</t>
-  </si>
-  <si>
     <t>The idea is that this should be a small number, and smaller than wind, so solar is curtailed first</t>
   </si>
   <si>
-    <t>WIND_CAPACITY_FILE</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_WIND</t>
-  </si>
-  <si>
     <t>$/kWh</t>
   </si>
   <si>
-    <t>DISPATCH_COST_WIND</t>
-  </si>
-  <si>
     <t>The idea is that this should be a small number, but bigger than solar, so solar is curtailed first</t>
   </si>
   <si>
-    <t>CAPACITY_COST_NATGAS</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_NATGAS</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_NUCLEAR</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_NUCLEAR</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_TO_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_FROM_STORAGE</t>
-  </si>
-  <si>
     <t>STORAGE_CHARGING_EFFICIENCY</t>
   </si>
   <si>
@@ -220,9 +182,6 @@
     <t>hours</t>
   </si>
   <si>
-    <t>DISPATCH_COST_UNMET_DEMAND</t>
-  </si>
-  <si>
     <t>BEGIN_CASE_DATA</t>
   </si>
   <si>
@@ -265,15 +224,6 @@
     <t>demand_series_Shaner_normalized_to_1_mean.csv</t>
   </si>
   <si>
-    <t>CAPACITY_COST_PGP_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_TO_PGP_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_FROM_PGP_STORAGE</t>
-  </si>
-  <si>
     <t>PGP_STORAGE_CHARGING_EFFICIENCY</t>
   </si>
   <si>
@@ -322,12 +272,6 @@
     <t>2.7e-6 adds on about 2.4 cents per kWh if used one cycle per year</t>
   </si>
   <si>
-    <t>CAPACITY_COST_TO_PGP_STORAGE</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_FROM_PGP_STORAGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electrolyser $4600 per kW capital cost. Assume 8% capital recovery factor and 8760 hours per year = </t>
   </si>
   <si>
@@ -386,6 +330,69 @@
   </si>
   <si>
     <t>3daynatgasbatt</t>
+  </si>
+  <si>
+    <t>SOLAR_FIXED_FILE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_SOLAR</t>
+  </si>
+  <si>
+    <t>WIND_FIXED_FILE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_WIND</t>
+  </si>
+  <si>
+    <t>FIXED_COST_NATGAS</t>
+  </si>
+  <si>
+    <t>FIXED_COST_NUCLEAR</t>
+  </si>
+  <si>
+    <t>FIXED_COST_STORAGE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>To reduce errors, if one keyword exists relevant to a technology, all keywords for that technology must be defined (i.e., if you have FIXED_cost_wind, you must have a VAR_cost_wind).</t>
+  </si>
+  <si>
+    <t>Variable cost of energy storage (VAR_cost_storage) is in units of $/hr per kWh stored.</t>
+  </si>
+  <si>
+    <t>VAR_COST_SOLAR</t>
+  </si>
+  <si>
+    <t>VAR_COST_WIND</t>
+  </si>
+  <si>
+    <t>VAR_COST_NATGAS</t>
+  </si>
+  <si>
+    <t>VAR_COST_NUCLEAR</t>
+  </si>
+  <si>
+    <t>VAR_COST_TO_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_FROM_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_UNMET_DEMAND</t>
   </si>
 </sst>
 </file>
@@ -1316,19 +1323,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -1358,7 +1365,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -1367,7 +1374,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
@@ -1376,7 +1383,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
@@ -1385,13 +1392,13 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -1400,7 +1407,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -1409,7 +1416,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -1418,7 +1425,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -1427,7 +1434,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -1436,7 +1443,7 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -1445,7 +1452,7 @@
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
@@ -1454,13 +1461,13 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
@@ -1469,7 +1476,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
@@ -1478,38 +1485,38 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,35 +1526,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,46 +1564,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B50" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B52" s="13">
         <v>1000000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B53" s="13">
         <v>1000000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1611,10 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -1616,10 +1623,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -1631,7 +1638,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -1641,7 +1648,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -1651,7 +1658,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -1661,7 +1668,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -1671,7 +1678,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="12">
         <v>2006</v>
@@ -1681,7 +1688,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="12">
         <v>12</v>
@@ -1691,7 +1698,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="12">
         <v>31</v>
@@ -1701,7 +1708,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="12">
         <v>24</v>
@@ -1717,38 +1724,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B69" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B70" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -1760,37 +1767,37 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B73" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B74" s="13">
         <v>2E-8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -1802,27 +1809,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B76" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B77" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -1834,27 +1841,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -1866,46 +1873,46 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B85" s="12">
         <v>0.9</v>
@@ -1915,34 +1922,34 @@
     </row>
     <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B86" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B87" s="12">
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,76 +1960,76 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B94" s="12">
         <v>0.3</v>
@@ -2038,33 +2045,33 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,18 +2079,18 @@
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B103" s="11"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2127,19 +2134,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -2169,7 +2176,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -2178,7 +2185,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
@@ -2187,7 +2194,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
@@ -2196,13 +2203,13 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -2211,7 +2218,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -2220,7 +2227,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -2229,7 +2236,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -2238,7 +2245,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -2247,7 +2254,7 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -2256,7 +2263,7 @@
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
@@ -2265,13 +2272,13 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
@@ -2280,7 +2287,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
@@ -2289,38 +2296,38 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,35 +2337,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2368,46 +2375,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B50" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B52" s="13">
         <v>1000000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B53" s="13">
         <v>1000000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,10 +2422,10 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -2427,10 +2434,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -2442,7 +2449,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -2452,7 +2459,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -2462,7 +2469,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -2472,7 +2479,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -2482,7 +2489,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="12">
         <v>2006</v>
@@ -2492,7 +2499,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="12">
         <v>1</v>
@@ -2502,7 +2509,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="12">
         <v>3</v>
@@ -2512,7 +2519,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="12">
         <v>24</v>
@@ -2528,38 +2535,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B69" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B70" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2571,37 +2578,37 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B73" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B74" s="13">
         <v>2E-8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2613,27 +2620,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B76" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B77" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2645,27 +2652,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2677,46 +2684,46 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B85" s="12">
         <v>0.9</v>
@@ -2726,34 +2733,34 @@
     </row>
     <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B86" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B87" s="12">
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,76 +2771,76 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B94" s="12">
         <v>0.3</v>
@@ -2849,48 +2856,48 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,7 +2905,7 @@
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B101" s="6">
         <v>1</v>
@@ -2918,7 +2925,7 @@
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B102" s="6">
         <v>-1</v>
@@ -2938,13 +2945,13 @@
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B104" s="11"/>
     </row>
     <row r="108" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2992,19 +2999,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -3034,7 +3041,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -3043,7 +3050,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
@@ -3052,7 +3059,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
@@ -3061,13 +3068,13 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -3076,7 +3083,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -3085,7 +3092,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -3094,7 +3101,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -3103,7 +3110,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -3112,7 +3119,7 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -3121,7 +3128,7 @@
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
@@ -3130,13 +3137,13 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
@@ -3145,7 +3152,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
@@ -3154,38 +3161,38 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,35 +3202,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,46 +3240,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B50" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B52" s="13">
         <v>1000000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B53" s="13">
         <v>1000000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,10 +3287,10 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -3292,10 +3299,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -3307,7 +3314,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -3317,7 +3324,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -3327,7 +3334,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -3337,7 +3344,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -3347,7 +3354,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="12">
         <v>2006</v>
@@ -3357,7 +3364,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="12">
         <v>12</v>
@@ -3367,7 +3374,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="12">
         <v>31</v>
@@ -3377,7 +3384,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="12">
         <v>24</v>
@@ -3393,38 +3400,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B69" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B70" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -3436,37 +3443,37 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B73" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B74" s="13">
         <v>2E-8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -3478,27 +3485,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B76" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B77" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -3510,27 +3517,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -3542,46 +3549,46 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B85" s="12">
         <v>0.9</v>
@@ -3591,34 +3598,34 @@
     </row>
     <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B86" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B87" s="12">
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,76 +3636,76 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B94" s="12">
         <v>0.3</v>
@@ -3714,45 +3721,45 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3760,7 +3767,7 @@
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B101" s="6">
         <v>1</v>
@@ -3777,7 +3784,7 @@
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B102" s="6">
         <v>-1</v>
@@ -3794,7 +3801,7 @@
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B103" s="6">
         <v>1</v>
@@ -3811,7 +3818,7 @@
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B104" s="6">
         <v>1</v>
@@ -3828,7 +3835,7 @@
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B105" s="6">
         <v>1</v>
@@ -3845,7 +3852,7 @@
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B106" s="6">
         <f>-1*B102</f>
@@ -3866,7 +3873,7 @@
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B107" s="6">
         <f t="shared" ref="B107:E107" si="1">-1*B103</f>
@@ -3887,7 +3894,7 @@
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B108" s="6">
         <f t="shared" ref="B108:E108" si="2">-1*B104</f>
@@ -3908,7 +3915,7 @@
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B109" s="6">
         <f t="shared" ref="B109:E109" si="3">-1*B105</f>
@@ -3929,13 +3936,13 @@
     </row>
     <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B111" s="11"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +4007,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10"/>
     </row>
@@ -4009,7 +4016,7 @@
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="10"/>
     </row>
@@ -4018,7 +4025,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -4027,13 +4034,13 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B16" s="10"/>
     </row>
@@ -4042,7 +4049,7 @@
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="10"/>
     </row>
@@ -4051,7 +4058,7 @@
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -4060,7 +4067,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -4069,7 +4076,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -4078,7 +4085,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -4087,7 +4094,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -4096,13 +4103,13 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="10"/>
     </row>
@@ -4111,7 +4118,7 @@
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="10"/>
     </row>
@@ -4120,38 +4127,38 @@
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,35 +4168,35 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B44" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,46 +4206,46 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B48" s="13">
         <v>1000000000</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B49" s="13">
         <v>1000000000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,10 +4253,10 @@
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" s="4"/>
     </row>
@@ -4258,10 +4265,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -4273,7 +4280,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" s="12">
         <v>2006</v>
@@ -4283,7 +4290,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B56" s="12">
         <v>1</v>
@@ -4293,7 +4300,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B57" s="12">
         <v>1</v>
@@ -4303,7 +4310,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="12">
         <v>1</v>
@@ -4313,7 +4320,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -4323,7 +4330,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" s="12">
         <v>12</v>
@@ -4333,7 +4340,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" s="12">
         <v>31</v>
@@ -4343,7 +4350,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B62" s="12">
         <v>24</v>
@@ -4359,48 +4366,48 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B65" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D65" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B66" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D66" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4411,37 +4418,37 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B69" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B70" s="13">
         <v>2E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -4453,36 +4460,36 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B72" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D72" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B73" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D73" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4493,30 +4500,30 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B75" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D75" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B76" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D76" s="14">
         <v>2.5158160216169324E-2</v>
@@ -4531,32 +4538,32 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B78" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D78" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B79" s="12">
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -4565,13 +4572,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B80" s="12">
         <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D80" s="12">
         <v>0</v>
@@ -4580,7 +4587,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B81" s="12">
         <v>0.9</v>
@@ -4593,13 +4600,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B82" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D82" s="12">
         <v>1.0000000000000001E-5</v>
@@ -4611,19 +4618,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B83" s="12">
         <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D83" s="12">
         <v>6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4634,70 +4641,70 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B85" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D85" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B86" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D86" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B87" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D87" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B88" s="12">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D88" s="12">
         <v>0</v>
@@ -4706,13 +4713,13 @@
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B89" s="12">
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -4721,7 +4728,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B90" s="12">
         <v>0.3</v>
@@ -4741,13 +4748,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B92" s="12">
         <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D92" s="12">
         <v>10</v>
@@ -4763,51 +4770,51 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4815,7 +4822,7 @@
     </row>
     <row r="98" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B98" s="6">
         <v>0.5</v>
@@ -4850,7 +4857,7 @@
     </row>
     <row r="99" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B99" s="6">
         <v>-1</v>
@@ -4885,13 +4892,13 @@
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B101" s="11"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C006C-7BAE-4002-B60F-78A1530E47F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245555D-7A65-47A9-83C6-004ED2E8918B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
-    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId2"/>
-    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId3"/>
-    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId4"/>
+    <sheet name="tweaktest" sheetId="8" r:id="rId2"/>
+    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId3"/>
+    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId4"/>
+    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="126">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -40,18 +48,12 @@
     <t>Keyword names are case insensitive.</t>
   </si>
   <si>
-    <t>To reduce errors, if one keyword exists relevant to a technology, all keywords for that technology must be defined (i.e., if you have capacity_cost_wind, you must have a dispatch_cost_wind).</t>
-  </si>
-  <si>
     <t>All energy-related (i.e., capacity) costs are in terms of $/hr per kW capacity, except for variable generators (wind and solar) it is cost per hour of deployment at the level of the associated capacity file.</t>
   </si>
   <si>
     <t>Note that costs of technologies with associated capacity files (e.g., wind solar) are assumed to be of the form where fixed costs the cost of hour of acheiveing the potential generation in the associated capacity file (i.e., there is no further normalization within the code).</t>
   </si>
   <si>
-    <t>Variable cost of energy storage (dispatch_cost_storage) is in units of $/hr per kWh stored.</t>
-  </si>
-  <si>
     <t>If the fixed cost for a technology is entered as a negative value, then that technology is assumed not to participate in the optimization.</t>
   </si>
   <si>
@@ -157,51 +159,18 @@
     <t>SOLAR_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>CAPACITY_COST_SOLAR</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_SOLAR</t>
-  </si>
-  <si>
     <t>The idea is that this should be a small number, and smaller than wind, so solar is curtailed first</t>
   </si>
   <si>
     <t>WIND_CAPACITY_FILE</t>
   </si>
   <si>
-    <t>CAPACITY_COST_WIND</t>
-  </si>
-  <si>
     <t>$/kWh</t>
   </si>
   <si>
-    <t>DISPATCH_COST_WIND</t>
-  </si>
-  <si>
     <t>The idea is that this should be a small number, but bigger than solar, so solar is curtailed first</t>
   </si>
   <si>
-    <t>CAPACITY_COST_NATGAS</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_NATGAS</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_NUCLEAR</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_NUCLEAR</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_TO_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_FROM_STORAGE</t>
-  </si>
-  <si>
     <t>STORAGE_CHARGING_EFFICIENCY</t>
   </si>
   <si>
@@ -220,9 +189,6 @@
     <t>hours</t>
   </si>
   <si>
-    <t>DISPATCH_COST_UNMET_DEMAND</t>
-  </si>
-  <si>
     <t>BEGIN_CASE_DATA</t>
   </si>
   <si>
@@ -265,15 +231,6 @@
     <t>demand_series_Shaner_normalized_to_1_mean.csv</t>
   </si>
   <si>
-    <t>CAPACITY_COST_PGP_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_TO_PGP_STORAGE</t>
-  </si>
-  <si>
-    <t>DISPATCH_COST_FROM_PGP_STORAGE</t>
-  </si>
-  <si>
     <t>PGP_STORAGE_CHARGING_EFFICIENCY</t>
   </si>
   <si>
@@ -322,12 +279,6 @@
     <t>2.7e-6 adds on about 2.4 cents per kWh if used one cycle per year</t>
   </si>
   <si>
-    <t>CAPACITY_COST_TO_PGP_STORAGE</t>
-  </si>
-  <si>
-    <t>CAPACITY_COST_FROM_PGP_STORAGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electrolyser $4600 per kW capital cost. Assume 8% capital recovery factor and 8760 hours per year = </t>
   </si>
   <si>
@@ -386,6 +337,78 @@
   </si>
   <si>
     <t>3daynatgasbatt</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Variable cost of energy storage (VAR_COST_storage) is in units of $/hr per kWh stored.</t>
+  </si>
+  <si>
+    <t>VAR_COST_SOLAR</t>
+  </si>
+  <si>
+    <t>VAR_COST_WIND</t>
+  </si>
+  <si>
+    <t>VAR_COST_NATGAS</t>
+  </si>
+  <si>
+    <t>VAR_COST_NUCLEAR</t>
+  </si>
+  <si>
+    <t>VAR_COST_TO_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_FROM_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>VAR_COST_UNMET_DEMAND</t>
+  </si>
+  <si>
+    <t>To reduce errors, if one keyword exists relevant to a technology, all keywords for that technology must be defined (i.e., if you have FIXED_COST_wind, you must have a VAR_COST_wind).</t>
+  </si>
+  <si>
+    <t>FIXED_COST_SOLAR</t>
+  </si>
+  <si>
+    <t>FIXED_COST_WIND</t>
+  </si>
+  <si>
+    <t>FIXED_COST_NATGAS</t>
+  </si>
+  <si>
+    <t>FIXED_COST_NUCLEAR</t>
+  </si>
+  <si>
+    <t>FIXED_COST_STORAGE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_TO_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>FIXED_COST_FROM_PGP_STORAGE</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test0</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,19 +1339,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -1358,7 +1381,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -1367,7 +1390,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
@@ -1376,7 +1399,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
@@ -1385,13 +1408,13 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -1400,7 +1423,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -1409,7 +1432,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -1418,7 +1441,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -1427,7 +1450,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -1436,7 +1459,7 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -1445,7 +1468,7 @@
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
@@ -1454,13 +1477,13 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
@@ -1469,7 +1492,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
@@ -1478,38 +1501,38 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,35 +1542,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,46 +1580,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B50" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B52" s="13">
         <v>1000000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B53" s="13">
         <v>1000000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,10 +1627,10 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -1616,10 +1639,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -1631,7 +1654,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -1641,7 +1664,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -1651,7 +1674,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -1661,7 +1684,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -1671,7 +1694,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="12">
         <v>2006</v>
@@ -1681,7 +1704,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="12">
         <v>12</v>
@@ -1691,7 +1714,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="12">
         <v>31</v>
@@ -1701,7 +1724,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="12">
         <v>24</v>
@@ -1717,38 +1740,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B69" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B70" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -1760,37 +1783,37 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B73" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B74" s="13">
         <v>2E-8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -1802,27 +1825,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B76" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B77" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -1834,27 +1857,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -1866,46 +1889,46 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B85" s="12">
         <v>0.9</v>
@@ -1915,34 +1938,34 @@
     </row>
     <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B86" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B87" s="12">
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,76 +1976,76 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B94" s="12">
         <v>0.3</v>
@@ -2038,52 +2061,210 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
+        <v>1</v>
+      </c>
+      <c r="K101" s="6">
+        <v>1</v>
+      </c>
+      <c r="L101" s="6">
+        <v>1</v>
+      </c>
+      <c r="M101" s="6">
+        <v>1</v>
+      </c>
+      <c r="N101" s="6">
+        <v>1</v>
+      </c>
+      <c r="O101" s="6">
+        <v>1</v>
+      </c>
+      <c r="P101" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>1</v>
+      </c>
+      <c r="R101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6">
+        <v>2</v>
+      </c>
+      <c r="G102" s="6">
+        <v>2</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J102" s="6">
+        <v>1</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1</v>
+      </c>
+      <c r="L102" s="6">
+        <v>1</v>
+      </c>
+      <c r="M102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2093,10 +2274,1097 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB1EB0-472A-4DD0-9E69-6F84B61B7AD5}">
+  <dimension ref="A1:R109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <f>2*0.8/0.75</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="G101" s="6">
+        <f>2*0.8/0.75</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="J101" s="6">
+        <v>1</v>
+      </c>
+      <c r="K101" s="6">
+        <v>1</v>
+      </c>
+      <c r="L101" s="6">
+        <v>1</v>
+      </c>
+      <c r="M101" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6">
+        <f>2*0.85/0.75</f>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="G102" s="6">
+        <f>2*0.85/0.75</f>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="J102" s="6">
+        <v>1</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1</v>
+      </c>
+      <c r="L102" s="6">
+        <v>1</v>
+      </c>
+      <c r="M102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G103" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H103" s="6">
+        <f>0.75*F103/2</f>
+        <v>0.9375</v>
+      </c>
+      <c r="I103" s="6">
+        <f>0.75*G103/2</f>
+        <v>0.9375</v>
+      </c>
+      <c r="J103" s="6">
+        <v>1</v>
+      </c>
+      <c r="K103" s="6">
+        <v>1</v>
+      </c>
+      <c r="L103" s="6">
+        <v>1</v>
+      </c>
+      <c r="M103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="11"/>
+    </row>
+    <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+      <c r="J107" s="6">
+        <v>1</v>
+      </c>
+      <c r="K107" s="6">
+        <v>1</v>
+      </c>
+      <c r="L107" s="6">
+        <v>1</v>
+      </c>
+      <c r="M107" s="6">
+        <v>1</v>
+      </c>
+      <c r="N107" s="6">
+        <v>1</v>
+      </c>
+      <c r="O107" s="6">
+        <v>1</v>
+      </c>
+      <c r="P107" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="6">
+        <v>1</v>
+      </c>
+      <c r="R107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8DEE5D-D4A0-4BC5-A916-79B06806B187}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
@@ -2127,19 +3395,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -2169,7 +3437,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -2178,7 +3446,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
@@ -2187,7 +3455,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
@@ -2196,13 +3464,13 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -2211,7 +3479,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -2220,7 +3488,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -2229,7 +3497,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -2238,7 +3506,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -2247,7 +3515,7 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -2256,7 +3524,7 @@
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
@@ -2265,13 +3533,13 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
@@ -2280,7 +3548,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
@@ -2289,38 +3557,38 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,35 +3598,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2368,46 +3636,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B50" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B52" s="13">
         <v>1000000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B53" s="13">
         <v>1000000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,10 +3683,10 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -2427,10 +3695,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -2442,7 +3710,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -2452,7 +3720,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -2462,7 +3730,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -2472,7 +3740,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -2482,7 +3750,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="12">
         <v>2006</v>
@@ -2492,7 +3760,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="12">
         <v>1</v>
@@ -2502,7 +3770,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="12">
         <v>3</v>
@@ -2512,7 +3780,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="12">
         <v>24</v>
@@ -2528,38 +3796,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B69" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B70" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2571,37 +3839,37 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B73" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B74" s="13">
         <v>2E-8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2613,27 +3881,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B76" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B77" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2645,27 +3913,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2677,46 +3945,46 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B85" s="12">
         <v>0.9</v>
@@ -2726,34 +3994,34 @@
     </row>
     <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B86" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B87" s="12">
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,76 +4032,76 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B94" s="12">
         <v>0.3</v>
@@ -2849,48 +4117,48 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,7 +4166,7 @@
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B101" s="6">
         <v>1</v>
@@ -2918,7 +4186,7 @@
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B102" s="6">
         <v>-1</v>
@@ -2938,13 +4206,13 @@
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B104" s="11"/>
     </row>
     <row r="108" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2957,7 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907549-D3C5-4AC6-B75C-E35B549A753D}">
   <dimension ref="A1:F115"/>
   <sheetViews>
@@ -2992,19 +4260,19 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -3034,7 +4302,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -3043,7 +4311,7 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10"/>
     </row>
@@ -3052,7 +4320,7 @@
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10"/>
     </row>
@@ -3061,13 +4329,13 @@
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -3076,7 +4344,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -3085,7 +4353,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -3094,7 +4362,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -3103,7 +4371,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -3112,7 +4380,7 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -3121,7 +4389,7 @@
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="10"/>
     </row>
@@ -3130,13 +4398,13 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10"/>
     </row>
@@ -3145,7 +4413,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
     </row>
@@ -3154,38 +4422,38 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,35 +4463,35 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B48" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,46 +4501,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B50" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B52" s="13">
         <v>1000000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B53" s="13">
         <v>1000000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,10 +4548,10 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -3292,10 +4560,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -3307,7 +4575,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -3317,7 +4585,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12">
         <v>1</v>
@@ -3327,7 +4595,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -3337,7 +4605,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12">
         <v>1</v>
@@ -3347,7 +4615,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63" s="12">
         <v>2006</v>
@@ -3357,7 +4625,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="12">
         <v>12</v>
@@ -3367,7 +4635,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="12">
         <v>31</v>
@@ -3377,7 +4645,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="12">
         <v>24</v>
@@ -3393,38 +4661,38 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B69" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B70" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -3436,37 +4704,37 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B73" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B74" s="13">
         <v>2E-8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -3478,27 +4746,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B76" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B77" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -3510,27 +4778,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B79" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B80" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -3542,46 +4810,46 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B82" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B85" s="12">
         <v>0.9</v>
@@ -3591,34 +4859,34 @@
     </row>
     <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B86" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1">
         <v>7.3048000000000002E-3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B87" s="12">
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,76 +4897,76 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B89" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B90" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B91" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B94" s="12">
         <v>0.3</v>
@@ -3714,45 +4982,45 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3760,7 +5028,7 @@
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B101" s="6">
         <v>1</v>
@@ -3777,7 +5045,7 @@
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B102" s="6">
         <v>-1</v>
@@ -3794,7 +5062,7 @@
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B103" s="6">
         <v>1</v>
@@ -3811,7 +5079,7 @@
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B104" s="6">
         <v>1</v>
@@ -3828,7 +5096,7 @@
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B105" s="6">
         <v>1</v>
@@ -3845,7 +5113,7 @@
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B106" s="6">
         <f>-1*B102</f>
@@ -3866,7 +5134,7 @@
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6">
         <f t="shared" ref="B107:E107" si="1">-1*B103</f>
@@ -3887,7 +5155,7 @@
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B108" s="6">
         <f t="shared" ref="B108:E108" si="2">-1*B104</f>
@@ -3908,7 +5176,7 @@
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B109" s="6">
         <f t="shared" ref="B109:E109" si="3">-1*B105</f>
@@ -3929,13 +5197,13 @@
     </row>
     <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B111" s="11"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
@@ -4000,7 +5268,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B9" s="10"/>
     </row>
@@ -4009,7 +5277,7 @@
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="10"/>
     </row>
@@ -4018,7 +5286,7 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="10"/>
     </row>
@@ -4027,13 +5295,13 @@
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B16" s="10"/>
     </row>
@@ -4042,7 +5310,7 @@
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="10"/>
     </row>
@@ -4051,7 +5319,7 @@
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="10"/>
     </row>
@@ -4060,7 +5328,7 @@
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="10"/>
     </row>
@@ -4069,7 +5337,7 @@
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="10"/>
     </row>
@@ -4078,7 +5346,7 @@
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="10"/>
     </row>
@@ -4087,7 +5355,7 @@
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
     </row>
@@ -4096,13 +5364,13 @@
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="10"/>
     </row>
@@ -4111,7 +5379,7 @@
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="10"/>
     </row>
@@ -4120,38 +5388,38 @@
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,35 +5429,35 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B44" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,46 +5467,46 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B46" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B48" s="13">
         <v>1000000000</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B49" s="13">
         <v>1000000000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,10 +5514,10 @@
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" s="4"/>
     </row>
@@ -4258,10 +5526,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -4273,7 +5541,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" s="12">
         <v>2006</v>
@@ -4283,7 +5551,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B56" s="12">
         <v>1</v>
@@ -4293,7 +5561,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B57" s="12">
         <v>1</v>
@@ -4303,7 +5571,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="12">
         <v>1</v>
@@ -4313,7 +5581,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B59" s="12">
         <v>2006</v>
@@ -4323,7 +5591,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" s="12">
         <v>12</v>
@@ -4333,7 +5601,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" s="12">
         <v>31</v>
@@ -4343,7 +5611,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B62" s="12">
         <v>24</v>
@@ -4359,48 +5627,48 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B65" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D65" s="14">
         <v>1.9528741509529837E-2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B66" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D66" s="13">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4411,37 +5679,37 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B69" s="14">
         <v>2.0648572594225215E-2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B70" s="13">
         <v>2E-8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -4453,36 +5721,36 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B72" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D72" s="14">
         <v>1.1841887362491711E-2</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B73" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D73" s="14">
         <v>2.2590009128958689E-2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4493,30 +5761,30 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B75" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D75" s="14">
         <v>6.2433901191501419E-2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B76" s="14">
         <v>2.5158160216169324E-2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D76" s="14">
         <v>2.5158160216169324E-2</v>
@@ -4531,32 +5799,32 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B78" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D78" s="12">
         <f>261*0.08/8760</f>
         <v>2.3835616438356165E-3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B79" s="12">
         <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -4565,13 +5833,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B80" s="12">
         <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D80" s="12">
         <v>0</v>
@@ -4580,7 +5848,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B81" s="12">
         <v>0.9</v>
@@ -4593,13 +5861,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B82" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D82" s="12">
         <v>1.0000000000000001E-5</v>
@@ -4611,19 +5879,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B83" s="12">
         <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D83" s="12">
         <v>6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4634,70 +5902,70 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B85" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D85" s="12">
         <f>0.3*0.08/8760</f>
         <v>2.7397260273972604E-6</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B86" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D86" s="12">
         <f>1100*0.08/8760</f>
         <v>1.0045662100456621E-2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B87" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D87" s="12">
         <f>4600*0.08/8760</f>
         <v>4.2009132420091327E-2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B88" s="12">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D88" s="12">
         <v>0</v>
@@ -4706,13 +5974,13 @@
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B89" s="12">
         <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -4721,7 +5989,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B90" s="12">
         <v>0.3</v>
@@ -4741,13 +6009,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B92" s="12">
         <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D92" s="12">
         <v>10</v>
@@ -4763,51 +6031,51 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4815,7 +6083,7 @@
     </row>
     <row r="98" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B98" s="6">
         <v>0.5</v>
@@ -4850,7 +6118,7 @@
     </row>
     <row r="99" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B99" s="6">
         <v>-1</v>
@@ -4885,13 +6153,13 @@
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B101" s="11"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245555D-7A65-47A9-83C6-004ED2E8918B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95AB9B-A775-4AE3-BFC5-BF4102856FD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="default" sheetId="2" r:id="rId1"/>
-    <sheet name="tweaktest" sheetId="8" r:id="rId2"/>
-    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId3"/>
-    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId4"/>
-    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId5"/>
+    <sheet name="base" sheetId="2" r:id="rId1"/>
+    <sheet name="base+test" sheetId="8" r:id="rId2"/>
+    <sheet name="year test 1-4" sheetId="9" r:id="rId3"/>
+    <sheet name="year test test" sheetId="10" r:id="rId4"/>
+    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId5"/>
+    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId6"/>
+    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="158">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -402,13 +404,109 @@
     <t>test</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test0</t>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>1980-1981</t>
+  </si>
+  <si>
+    <t>1980-1983</t>
+  </si>
+  <si>
+    <t>1982-1983</t>
+  </si>
+  <si>
+    <t>1984-1985</t>
+  </si>
+  <si>
+    <t>1986-1987</t>
+  </si>
+  <si>
+    <t>1988-1989</t>
+  </si>
+  <si>
+    <t>1990-1991</t>
+  </si>
+  <si>
+    <t>1992-1993</t>
+  </si>
+  <si>
+    <t>1994-1995</t>
+  </si>
+  <si>
+    <t>1996-1997</t>
+  </si>
+  <si>
+    <t>2000-2001</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>2004-2005</t>
+  </si>
+  <si>
+    <t>2006-2007</t>
+  </si>
+  <si>
+    <t>2008-2009</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>2012-2013</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
+  </si>
+  <si>
+    <t>1998-1999</t>
+  </si>
+  <si>
+    <t>1984-1987</t>
+  </si>
+  <si>
+    <t>1988-1991</t>
+  </si>
+  <si>
+    <t>1992-1995</t>
+  </si>
+  <si>
+    <t>1996-1999</t>
+  </si>
+  <si>
+    <t>2000-2003</t>
+  </si>
+  <si>
+    <t>2003-2007</t>
+  </si>
+  <si>
+    <t>2007-2011</t>
+  </si>
+  <si>
+    <t>2012-2015</t>
+  </si>
+  <si>
+    <t>1980_01</t>
+  </si>
+  <si>
+    <t>1980_02</t>
+  </si>
+  <si>
+    <t>1980_04</t>
+  </si>
+  <si>
+    <t>1980_08</t>
+  </si>
+  <si>
+    <t>1980_16</t>
+  </si>
+  <si>
+    <t>1980_32</t>
+  </si>
+  <si>
+    <t>year_test</t>
+  </si>
+  <si>
+    <t>When these values are entered for cases below, they are not scaled but entered as they should be used.</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -950,6 +1048,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1306,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E599E-3D00-45DF-A9B9-819537A050D1}">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Q98" sqref="Q98"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1762,9 @@
       <c r="B59" s="12">
         <v>2006</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,7 +1774,9 @@
       <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,7 +1786,9 @@
       <c r="B61" s="12">
         <v>1</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1798,9 @@
       <c r="B62" s="12">
         <v>1</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,7 +1810,9 @@
       <c r="B63" s="12">
         <v>2006</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,7 +1822,9 @@
       <c r="B64" s="12">
         <v>12</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,7 +1834,9 @@
       <c r="B65" s="12">
         <v>31</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,7 +1846,9 @@
       <c r="B66" s="12">
         <v>24</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,7 +2150,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>111</v>
       </c>
@@ -2200,70 +2319,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B102" s="6">
-        <v>1</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6">
-        <v>1</v>
-      </c>
-      <c r="E102" s="6">
-        <v>1</v>
-      </c>
-      <c r="F102" s="6">
-        <v>2</v>
-      </c>
-      <c r="G102" s="6">
-        <v>2</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="J102" s="6">
-        <v>1</v>
-      </c>
-      <c r="K102" s="6">
-        <v>1</v>
-      </c>
-      <c r="L102" s="6">
-        <v>1</v>
-      </c>
-      <c r="M102" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N102" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O102" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P102" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q102" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R102" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="103" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2275,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB1EB0-472A-4DD0-9E69-6F84B61B7AD5}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,7 +2691,9 @@
       <c r="B59" s="12">
         <v>2006</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,7 +2703,9 @@
       <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,7 +2715,9 @@
       <c r="B61" s="12">
         <v>1</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,7 +2727,9 @@
       <c r="B62" s="12">
         <v>1</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2668,7 +2739,9 @@
       <c r="B63" s="12">
         <v>2006</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,7 +2751,9 @@
       <c r="B64" s="12">
         <v>12</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,7 +2763,9 @@
       <c r="B65" s="12">
         <v>31</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,67 +3190,65 @@
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B101" s="6">
-        <v>1</v>
-      </c>
-      <c r="C101" s="6">
-        <v>1</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
-        <f>2*0.8/0.75</f>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="G101" s="6">
-        <f>2*0.8/0.75</f>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="J101" s="6">
-        <v>1</v>
-      </c>
-      <c r="K101" s="6">
-        <v>1</v>
-      </c>
-      <c r="L101" s="6">
-        <v>1</v>
-      </c>
-      <c r="M101" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N101" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O101" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P101" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q101" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R101" s="6">
+    <row r="101" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="C101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1</v>
+      </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+      <c r="F101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="I101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="J101" s="15">
+        <v>1</v>
+      </c>
+      <c r="K101" s="15">
+        <v>1</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1</v>
+      </c>
+      <c r="M101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B102" s="6">
         <v>1</v>
@@ -3188,18 +3263,16 @@
         <v>1</v>
       </c>
       <c r="F102" s="6">
-        <f>2*0.85/0.75</f>
-        <v>2.2666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G102" s="6">
-        <f>2*0.85/0.75</f>
-        <v>2.2666666666666666</v>
+        <v>1</v>
       </c>
       <c r="H102" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I102" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J102" s="6">
         <v>1</v>
@@ -3211,146 +3284,32 @@
         <v>1</v>
       </c>
       <c r="M102" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N102" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O102" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P102" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R102" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B103" s="6">
-        <v>1</v>
-      </c>
-      <c r="C103" s="6">
-        <v>1</v>
-      </c>
-      <c r="D103" s="6">
-        <v>1</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G103" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="H103" s="6">
-        <f>0.75*F103/2</f>
-        <v>0.9375</v>
-      </c>
-      <c r="I103" s="6">
-        <f>0.75*G103/2</f>
-        <v>0.9375</v>
-      </c>
-      <c r="J103" s="6">
-        <v>1</v>
-      </c>
-      <c r="K103" s="6">
-        <v>1</v>
-      </c>
-      <c r="L103" s="6">
-        <v>1</v>
-      </c>
-      <c r="M103" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N103" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="O103" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P103" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R103" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="104" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="6">
-        <v>1</v>
-      </c>
-      <c r="C107" s="6">
-        <v>1</v>
-      </c>
-      <c r="D107" s="6">
-        <v>1</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1</v>
-      </c>
-      <c r="G107" s="6">
-        <v>1</v>
-      </c>
-      <c r="H107" s="6">
-        <v>1</v>
-      </c>
-      <c r="I107" s="6">
-        <v>1</v>
-      </c>
-      <c r="J107" s="6">
-        <v>1</v>
-      </c>
-      <c r="K107" s="6">
-        <v>1</v>
-      </c>
-      <c r="L107" s="6">
-        <v>1</v>
-      </c>
-      <c r="M107" s="6">
-        <v>1</v>
-      </c>
-      <c r="N107" s="6">
-        <v>1</v>
-      </c>
-      <c r="O107" s="6">
-        <v>1</v>
-      </c>
-      <c r="P107" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="6">
-        <v>1</v>
-      </c>
-      <c r="R107" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3361,6 +3320,6129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99D15FE-36A1-49F1-8B4C-C549C51F779B}">
+  <dimension ref="A1:T169"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
+        <v>1980</v>
+      </c>
+      <c r="B101" s="16">
+        <v>1980</v>
+      </c>
+      <c r="C101" s="16">
+        <v>1980</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1</v>
+      </c>
+      <c r="M101" s="15">
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <v>1</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <f>A101+1</f>
+        <v>1981</v>
+      </c>
+      <c r="B102" s="17">
+        <v>1981</v>
+      </c>
+      <c r="C102" s="17">
+        <v>1981</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F102" s="15">
+        <v>1</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+      <c r="H102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L102" s="15">
+        <v>1</v>
+      </c>
+      <c r="M102" s="15">
+        <v>1</v>
+      </c>
+      <c r="N102" s="15">
+        <v>1</v>
+      </c>
+      <c r="O102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <f t="shared" ref="A103:A136" si="0">A102+1</f>
+        <v>1982</v>
+      </c>
+      <c r="B103" s="17">
+        <v>1982</v>
+      </c>
+      <c r="C103" s="17">
+        <v>1982</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F103" s="15">
+        <v>1</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+      <c r="H103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L103" s="15">
+        <v>1</v>
+      </c>
+      <c r="M103" s="15">
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <v>1</v>
+      </c>
+      <c r="O103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="B104" s="17">
+        <v>1983</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1983</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F104" s="15">
+        <v>1</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+      <c r="H104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L104" s="15">
+        <v>1</v>
+      </c>
+      <c r="M104" s="15">
+        <v>1</v>
+      </c>
+      <c r="N104" s="15">
+        <v>1</v>
+      </c>
+      <c r="O104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="B105" s="17">
+        <v>1984</v>
+      </c>
+      <c r="C105" s="17">
+        <v>1984</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F105" s="15">
+        <v>1</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+      <c r="H105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L105" s="15">
+        <v>1</v>
+      </c>
+      <c r="M105" s="15">
+        <v>1</v>
+      </c>
+      <c r="N105" s="15">
+        <v>1</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="B106" s="17">
+        <v>1985</v>
+      </c>
+      <c r="C106" s="17">
+        <v>1985</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F106" s="15">
+        <v>1</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1</v>
+      </c>
+      <c r="H106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L106" s="15">
+        <v>1</v>
+      </c>
+      <c r="M106" s="15">
+        <v>1</v>
+      </c>
+      <c r="N106" s="15">
+        <v>1</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T106" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="B107" s="17">
+        <v>1986</v>
+      </c>
+      <c r="C107" s="17">
+        <v>1986</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F107" s="15">
+        <v>1</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1</v>
+      </c>
+      <c r="H107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L107" s="15">
+        <v>1</v>
+      </c>
+      <c r="M107" s="15">
+        <v>1</v>
+      </c>
+      <c r="N107" s="15">
+        <v>1</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T107" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="B108" s="17">
+        <v>1987</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1987</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F108" s="15">
+        <v>1</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1</v>
+      </c>
+      <c r="H108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J108" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K108" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L108" s="15">
+        <v>1</v>
+      </c>
+      <c r="M108" s="15">
+        <v>1</v>
+      </c>
+      <c r="N108" s="15">
+        <v>1</v>
+      </c>
+      <c r="O108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T108" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="B109" s="17">
+        <v>1988</v>
+      </c>
+      <c r="C109" s="17">
+        <v>1988</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F109" s="15">
+        <v>1</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1</v>
+      </c>
+      <c r="H109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J109" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K109" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L109" s="15">
+        <v>1</v>
+      </c>
+      <c r="M109" s="15">
+        <v>1</v>
+      </c>
+      <c r="N109" s="15">
+        <v>1</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T109" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="B110" s="17">
+        <v>1989</v>
+      </c>
+      <c r="C110" s="17">
+        <v>1989</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F110" s="15">
+        <v>1</v>
+      </c>
+      <c r="G110" s="15">
+        <v>1</v>
+      </c>
+      <c r="H110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L110" s="15">
+        <v>1</v>
+      </c>
+      <c r="M110" s="15">
+        <v>1</v>
+      </c>
+      <c r="N110" s="15">
+        <v>1</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T110" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="B111" s="17">
+        <v>1990</v>
+      </c>
+      <c r="C111" s="17">
+        <v>1990</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F111" s="15">
+        <v>1</v>
+      </c>
+      <c r="G111" s="15">
+        <v>1</v>
+      </c>
+      <c r="H111" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I111" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J111" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L111" s="15">
+        <v>1</v>
+      </c>
+      <c r="M111" s="15">
+        <v>1</v>
+      </c>
+      <c r="N111" s="15">
+        <v>1</v>
+      </c>
+      <c r="O111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T111" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="B112" s="17">
+        <v>1991</v>
+      </c>
+      <c r="C112" s="17">
+        <v>1991</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E112" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F112" s="15">
+        <v>1</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1</v>
+      </c>
+      <c r="H112" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I112" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J112" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K112" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L112" s="15">
+        <v>1</v>
+      </c>
+      <c r="M112" s="15">
+        <v>1</v>
+      </c>
+      <c r="N112" s="15">
+        <v>1</v>
+      </c>
+      <c r="O112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T112" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="B113" s="17">
+        <v>1992</v>
+      </c>
+      <c r="C113" s="17">
+        <v>1992</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E113" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F113" s="15">
+        <v>1</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1</v>
+      </c>
+      <c r="H113" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I113" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J113" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K113" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L113" s="15">
+        <v>1</v>
+      </c>
+      <c r="M113" s="15">
+        <v>1</v>
+      </c>
+      <c r="N113" s="15">
+        <v>1</v>
+      </c>
+      <c r="O113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T113" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="B114" s="17">
+        <v>1993</v>
+      </c>
+      <c r="C114" s="17">
+        <v>1993</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E114" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F114" s="15">
+        <v>1</v>
+      </c>
+      <c r="G114" s="15">
+        <v>1</v>
+      </c>
+      <c r="H114" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I114" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J114" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K114" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L114" s="15">
+        <v>1</v>
+      </c>
+      <c r="M114" s="15">
+        <v>1</v>
+      </c>
+      <c r="N114" s="15">
+        <v>1</v>
+      </c>
+      <c r="O114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T114" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="B115" s="17">
+        <v>1994</v>
+      </c>
+      <c r="C115" s="17">
+        <v>1994</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E115" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F115" s="15">
+        <v>1</v>
+      </c>
+      <c r="G115" s="15">
+        <v>1</v>
+      </c>
+      <c r="H115" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I115" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J115" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K115" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L115" s="15">
+        <v>1</v>
+      </c>
+      <c r="M115" s="15">
+        <v>1</v>
+      </c>
+      <c r="N115" s="15">
+        <v>1</v>
+      </c>
+      <c r="O115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T115" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="B116" s="17">
+        <v>1995</v>
+      </c>
+      <c r="C116" s="17">
+        <v>1995</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E116" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F116" s="15">
+        <v>1</v>
+      </c>
+      <c r="G116" s="15">
+        <v>1</v>
+      </c>
+      <c r="H116" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I116" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J116" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K116" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L116" s="15">
+        <v>1</v>
+      </c>
+      <c r="M116" s="15">
+        <v>1</v>
+      </c>
+      <c r="N116" s="15">
+        <v>1</v>
+      </c>
+      <c r="O116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T116" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="B117" s="17">
+        <v>1996</v>
+      </c>
+      <c r="C117" s="17">
+        <v>1996</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E117" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F117" s="15">
+        <v>1</v>
+      </c>
+      <c r="G117" s="15">
+        <v>1</v>
+      </c>
+      <c r="H117" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I117" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J117" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K117" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L117" s="15">
+        <v>1</v>
+      </c>
+      <c r="M117" s="15">
+        <v>1</v>
+      </c>
+      <c r="N117" s="15">
+        <v>1</v>
+      </c>
+      <c r="O117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T117" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="B118" s="17">
+        <v>1997</v>
+      </c>
+      <c r="C118" s="17">
+        <v>1997</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E118" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F118" s="15">
+        <v>1</v>
+      </c>
+      <c r="G118" s="15">
+        <v>1</v>
+      </c>
+      <c r="H118" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I118" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J118" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K118" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L118" s="15">
+        <v>1</v>
+      </c>
+      <c r="M118" s="15">
+        <v>1</v>
+      </c>
+      <c r="N118" s="15">
+        <v>1</v>
+      </c>
+      <c r="O118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T118" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="B119" s="17">
+        <v>1998</v>
+      </c>
+      <c r="C119" s="17">
+        <v>1998</v>
+      </c>
+      <c r="D119" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E119" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F119" s="15">
+        <v>1</v>
+      </c>
+      <c r="G119" s="15">
+        <v>1</v>
+      </c>
+      <c r="H119" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I119" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J119" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K119" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L119" s="15">
+        <v>1</v>
+      </c>
+      <c r="M119" s="15">
+        <v>1</v>
+      </c>
+      <c r="N119" s="15">
+        <v>1</v>
+      </c>
+      <c r="O119" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P119" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q119" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R119" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S119" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T119" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="B120" s="17">
+        <v>1999</v>
+      </c>
+      <c r="C120" s="17">
+        <v>1999</v>
+      </c>
+      <c r="D120" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E120" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F120" s="15">
+        <v>1</v>
+      </c>
+      <c r="G120" s="15">
+        <v>1</v>
+      </c>
+      <c r="H120" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I120" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J120" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K120" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L120" s="15">
+        <v>1</v>
+      </c>
+      <c r="M120" s="15">
+        <v>1</v>
+      </c>
+      <c r="N120" s="15">
+        <v>1</v>
+      </c>
+      <c r="O120" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P120" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q120" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R120" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S120" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T120" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="B121" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C121" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D121" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E121" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F121" s="15">
+        <v>1</v>
+      </c>
+      <c r="G121" s="15">
+        <v>1</v>
+      </c>
+      <c r="H121" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I121" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J121" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K121" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L121" s="15">
+        <v>1</v>
+      </c>
+      <c r="M121" s="15">
+        <v>1</v>
+      </c>
+      <c r="N121" s="15">
+        <v>1</v>
+      </c>
+      <c r="O121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T121" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="B122" s="17">
+        <v>2001</v>
+      </c>
+      <c r="C122" s="17">
+        <v>2001</v>
+      </c>
+      <c r="D122" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E122" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F122" s="15">
+        <v>1</v>
+      </c>
+      <c r="G122" s="15">
+        <v>1</v>
+      </c>
+      <c r="H122" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I122" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J122" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K122" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L122" s="15">
+        <v>1</v>
+      </c>
+      <c r="M122" s="15">
+        <v>1</v>
+      </c>
+      <c r="N122" s="15">
+        <v>1</v>
+      </c>
+      <c r="O122" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P122" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q122" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R122" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S122" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T122" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="B123" s="17">
+        <v>2002</v>
+      </c>
+      <c r="C123" s="17">
+        <v>2002</v>
+      </c>
+      <c r="D123" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E123" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F123" s="15">
+        <v>1</v>
+      </c>
+      <c r="G123" s="15">
+        <v>1</v>
+      </c>
+      <c r="H123" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I123" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J123" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K123" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L123" s="15">
+        <v>1</v>
+      </c>
+      <c r="M123" s="15">
+        <v>1</v>
+      </c>
+      <c r="N123" s="15">
+        <v>1</v>
+      </c>
+      <c r="O123" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P123" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q123" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R123" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S123" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T123" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B124" s="17">
+        <v>2003</v>
+      </c>
+      <c r="C124" s="17">
+        <v>2003</v>
+      </c>
+      <c r="D124" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E124" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F124" s="15">
+        <v>1</v>
+      </c>
+      <c r="G124" s="15">
+        <v>1</v>
+      </c>
+      <c r="H124" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I124" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J124" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K124" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L124" s="15">
+        <v>1</v>
+      </c>
+      <c r="M124" s="15">
+        <v>1</v>
+      </c>
+      <c r="N124" s="15">
+        <v>1</v>
+      </c>
+      <c r="O124" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P124" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q124" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R124" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S124" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T124" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B125" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C125" s="17">
+        <v>2004</v>
+      </c>
+      <c r="D125" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E125" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F125" s="15">
+        <v>1</v>
+      </c>
+      <c r="G125" s="15">
+        <v>1</v>
+      </c>
+      <c r="H125" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I125" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J125" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K125" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L125" s="15">
+        <v>1</v>
+      </c>
+      <c r="M125" s="15">
+        <v>1</v>
+      </c>
+      <c r="N125" s="15">
+        <v>1</v>
+      </c>
+      <c r="O125" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P125" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q125" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R125" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S125" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T125" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B126" s="17">
+        <v>2005</v>
+      </c>
+      <c r="C126" s="17">
+        <v>2005</v>
+      </c>
+      <c r="D126" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E126" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F126" s="15">
+        <v>1</v>
+      </c>
+      <c r="G126" s="15">
+        <v>1</v>
+      </c>
+      <c r="H126" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I126" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J126" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K126" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L126" s="15">
+        <v>1</v>
+      </c>
+      <c r="M126" s="15">
+        <v>1</v>
+      </c>
+      <c r="N126" s="15">
+        <v>1</v>
+      </c>
+      <c r="O126" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P126" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q126" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R126" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S126" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T126" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B127" s="17">
+        <v>2006</v>
+      </c>
+      <c r="C127" s="17">
+        <v>2006</v>
+      </c>
+      <c r="D127" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E127" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F127" s="15">
+        <v>1</v>
+      </c>
+      <c r="G127" s="15">
+        <v>1</v>
+      </c>
+      <c r="H127" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I127" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J127" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K127" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L127" s="15">
+        <v>1</v>
+      </c>
+      <c r="M127" s="15">
+        <v>1</v>
+      </c>
+      <c r="N127" s="15">
+        <v>1</v>
+      </c>
+      <c r="O127" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P127" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q127" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R127" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S127" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T127" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B128" s="17">
+        <v>2007</v>
+      </c>
+      <c r="C128" s="17">
+        <v>2007</v>
+      </c>
+      <c r="D128" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E128" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F128" s="15">
+        <v>1</v>
+      </c>
+      <c r="G128" s="15">
+        <v>1</v>
+      </c>
+      <c r="H128" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I128" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J128" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K128" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L128" s="15">
+        <v>1</v>
+      </c>
+      <c r="M128" s="15">
+        <v>1</v>
+      </c>
+      <c r="N128" s="15">
+        <v>1</v>
+      </c>
+      <c r="O128" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P128" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q128" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R128" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S128" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T128" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B129" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C129" s="17">
+        <v>2008</v>
+      </c>
+      <c r="D129" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E129" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F129" s="15">
+        <v>1</v>
+      </c>
+      <c r="G129" s="15">
+        <v>1</v>
+      </c>
+      <c r="H129" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I129" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J129" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K129" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L129" s="15">
+        <v>1</v>
+      </c>
+      <c r="M129" s="15">
+        <v>1</v>
+      </c>
+      <c r="N129" s="15">
+        <v>1</v>
+      </c>
+      <c r="O129" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P129" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q129" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R129" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S129" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T129" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B130" s="17">
+        <v>2009</v>
+      </c>
+      <c r="C130" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D130" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E130" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F130" s="15">
+        <v>1</v>
+      </c>
+      <c r="G130" s="15">
+        <v>1</v>
+      </c>
+      <c r="H130" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I130" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J130" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K130" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L130" s="15">
+        <v>1</v>
+      </c>
+      <c r="M130" s="15">
+        <v>1</v>
+      </c>
+      <c r="N130" s="15">
+        <v>1</v>
+      </c>
+      <c r="O130" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P130" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q130" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R130" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S130" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T130" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B131" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C131" s="17">
+        <v>2010</v>
+      </c>
+      <c r="D131" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E131" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F131" s="15">
+        <v>1</v>
+      </c>
+      <c r="G131" s="15">
+        <v>1</v>
+      </c>
+      <c r="H131" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I131" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J131" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K131" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L131" s="15">
+        <v>1</v>
+      </c>
+      <c r="M131" s="15">
+        <v>1</v>
+      </c>
+      <c r="N131" s="15">
+        <v>1</v>
+      </c>
+      <c r="O131" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P131" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q131" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R131" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S131" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T131" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B132" s="17">
+        <v>2011</v>
+      </c>
+      <c r="C132" s="17">
+        <v>2011</v>
+      </c>
+      <c r="D132" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E132" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F132" s="15">
+        <v>1</v>
+      </c>
+      <c r="G132" s="15">
+        <v>1</v>
+      </c>
+      <c r="H132" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I132" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J132" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K132" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L132" s="15">
+        <v>1</v>
+      </c>
+      <c r="M132" s="15">
+        <v>1</v>
+      </c>
+      <c r="N132" s="15">
+        <v>1</v>
+      </c>
+      <c r="O132" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P132" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q132" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R132" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S132" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T132" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B133" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C133" s="17">
+        <v>2012</v>
+      </c>
+      <c r="D133" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E133" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F133" s="15">
+        <v>1</v>
+      </c>
+      <c r="G133" s="15">
+        <v>1</v>
+      </c>
+      <c r="H133" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I133" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J133" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K133" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L133" s="15">
+        <v>1</v>
+      </c>
+      <c r="M133" s="15">
+        <v>1</v>
+      </c>
+      <c r="N133" s="15">
+        <v>1</v>
+      </c>
+      <c r="O133" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P133" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q133" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R133" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S133" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T133" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B134" s="17">
+        <v>2013</v>
+      </c>
+      <c r="C134" s="17">
+        <v>2013</v>
+      </c>
+      <c r="D134" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E134" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F134" s="15">
+        <v>1</v>
+      </c>
+      <c r="G134" s="15">
+        <v>1</v>
+      </c>
+      <c r="H134" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I134" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J134" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K134" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L134" s="15">
+        <v>1</v>
+      </c>
+      <c r="M134" s="15">
+        <v>1</v>
+      </c>
+      <c r="N134" s="15">
+        <v>1</v>
+      </c>
+      <c r="O134" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P134" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q134" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R134" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S134" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T134" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B135" s="17">
+        <v>2014</v>
+      </c>
+      <c r="C135" s="17">
+        <v>2014</v>
+      </c>
+      <c r="D135" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E135" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F135" s="15">
+        <v>1</v>
+      </c>
+      <c r="G135" s="15">
+        <v>1</v>
+      </c>
+      <c r="H135" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I135" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J135" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K135" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L135" s="15">
+        <v>1</v>
+      </c>
+      <c r="M135" s="15">
+        <v>1</v>
+      </c>
+      <c r="N135" s="15">
+        <v>1</v>
+      </c>
+      <c r="O135" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P135" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q135" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R135" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S135" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T135" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B136" s="17">
+        <v>2015</v>
+      </c>
+      <c r="C136" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D136" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E136" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F136" s="15">
+        <v>1</v>
+      </c>
+      <c r="G136" s="15">
+        <v>1</v>
+      </c>
+      <c r="H136" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I136" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J136" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K136" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L136" s="15">
+        <v>1</v>
+      </c>
+      <c r="M136" s="15">
+        <v>1</v>
+      </c>
+      <c r="N136" s="15">
+        <v>1</v>
+      </c>
+      <c r="O136" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P136" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q136" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R136" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S136" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T136" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" s="17">
+        <v>1980</v>
+      </c>
+      <c r="C137" s="17">
+        <v>1981</v>
+      </c>
+      <c r="D137" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E137" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F137" s="15">
+        <v>1</v>
+      </c>
+      <c r="G137" s="15">
+        <v>1</v>
+      </c>
+      <c r="H137" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I137" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J137" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K137" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L137" s="15">
+        <v>1</v>
+      </c>
+      <c r="M137" s="15">
+        <v>1</v>
+      </c>
+      <c r="N137" s="15">
+        <v>1</v>
+      </c>
+      <c r="O137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T137" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" s="17">
+        <v>1982</v>
+      </c>
+      <c r="C138" s="17">
+        <v>1983</v>
+      </c>
+      <c r="D138" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E138" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F138" s="15">
+        <v>1</v>
+      </c>
+      <c r="G138" s="15">
+        <v>1</v>
+      </c>
+      <c r="H138" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I138" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J138" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K138" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L138" s="15">
+        <v>1</v>
+      </c>
+      <c r="M138" s="15">
+        <v>1</v>
+      </c>
+      <c r="N138" s="15">
+        <v>1</v>
+      </c>
+      <c r="O138" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P138" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q138" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R138" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S138" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T138" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="17">
+        <v>1984</v>
+      </c>
+      <c r="C139" s="17">
+        <v>1985</v>
+      </c>
+      <c r="D139" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E139" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F139" s="15">
+        <v>1</v>
+      </c>
+      <c r="G139" s="15">
+        <v>1</v>
+      </c>
+      <c r="H139" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I139" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J139" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K139" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L139" s="15">
+        <v>1</v>
+      </c>
+      <c r="M139" s="15">
+        <v>1</v>
+      </c>
+      <c r="N139" s="15">
+        <v>1</v>
+      </c>
+      <c r="O139" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P139" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q139" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R139" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S139" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T139" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="17">
+        <v>1986</v>
+      </c>
+      <c r="C140" s="17">
+        <v>1987</v>
+      </c>
+      <c r="D140" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E140" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F140" s="15">
+        <v>1</v>
+      </c>
+      <c r="G140" s="15">
+        <v>1</v>
+      </c>
+      <c r="H140" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I140" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J140" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K140" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L140" s="15">
+        <v>1</v>
+      </c>
+      <c r="M140" s="15">
+        <v>1</v>
+      </c>
+      <c r="N140" s="15">
+        <v>1</v>
+      </c>
+      <c r="O140" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P140" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q140" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R140" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S140" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T140" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="17">
+        <v>1988</v>
+      </c>
+      <c r="C141" s="17">
+        <v>1989</v>
+      </c>
+      <c r="D141" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E141" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F141" s="15">
+        <v>1</v>
+      </c>
+      <c r="G141" s="15">
+        <v>1</v>
+      </c>
+      <c r="H141" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I141" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J141" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K141" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L141" s="15">
+        <v>1</v>
+      </c>
+      <c r="M141" s="15">
+        <v>1</v>
+      </c>
+      <c r="N141" s="15">
+        <v>1</v>
+      </c>
+      <c r="O141" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P141" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q141" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R141" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S141" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T141" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="17">
+        <v>1990</v>
+      </c>
+      <c r="C142" s="17">
+        <v>1991</v>
+      </c>
+      <c r="D142" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E142" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F142" s="15">
+        <v>1</v>
+      </c>
+      <c r="G142" s="15">
+        <v>1</v>
+      </c>
+      <c r="H142" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I142" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J142" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K142" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L142" s="15">
+        <v>1</v>
+      </c>
+      <c r="M142" s="15">
+        <v>1</v>
+      </c>
+      <c r="N142" s="15">
+        <v>1</v>
+      </c>
+      <c r="O142" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P142" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q142" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R142" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S142" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T142" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" s="17">
+        <v>1992</v>
+      </c>
+      <c r="C143" s="17">
+        <v>1993</v>
+      </c>
+      <c r="D143" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E143" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F143" s="15">
+        <v>1</v>
+      </c>
+      <c r="G143" s="15">
+        <v>1</v>
+      </c>
+      <c r="H143" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I143" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J143" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K143" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L143" s="15">
+        <v>1</v>
+      </c>
+      <c r="M143" s="15">
+        <v>1</v>
+      </c>
+      <c r="N143" s="15">
+        <v>1</v>
+      </c>
+      <c r="O143" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P143" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q143" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R143" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S143" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T143" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="17">
+        <v>1994</v>
+      </c>
+      <c r="C144" s="17">
+        <v>1995</v>
+      </c>
+      <c r="D144" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E144" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F144" s="15">
+        <v>1</v>
+      </c>
+      <c r="G144" s="15">
+        <v>1</v>
+      </c>
+      <c r="H144" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I144" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J144" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K144" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L144" s="15">
+        <v>1</v>
+      </c>
+      <c r="M144" s="15">
+        <v>1</v>
+      </c>
+      <c r="N144" s="15">
+        <v>1</v>
+      </c>
+      <c r="O144" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P144" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q144" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R144" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S144" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T144" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="17">
+        <v>1996</v>
+      </c>
+      <c r="C145" s="17">
+        <v>1997</v>
+      </c>
+      <c r="D145" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E145" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F145" s="15">
+        <v>1</v>
+      </c>
+      <c r="G145" s="15">
+        <v>1</v>
+      </c>
+      <c r="H145" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I145" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J145" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K145" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L145" s="15">
+        <v>1</v>
+      </c>
+      <c r="M145" s="15">
+        <v>1</v>
+      </c>
+      <c r="N145" s="15">
+        <v>1</v>
+      </c>
+      <c r="O145" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P145" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q145" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R145" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S145" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T145" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" s="17">
+        <v>1998</v>
+      </c>
+      <c r="C146" s="17">
+        <v>1999</v>
+      </c>
+      <c r="D146" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E146" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F146" s="15">
+        <v>1</v>
+      </c>
+      <c r="G146" s="15">
+        <v>1</v>
+      </c>
+      <c r="H146" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I146" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J146" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K146" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L146" s="15">
+        <v>1</v>
+      </c>
+      <c r="M146" s="15">
+        <v>1</v>
+      </c>
+      <c r="N146" s="15">
+        <v>1</v>
+      </c>
+      <c r="O146" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P146" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q146" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R146" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S146" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T146" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B147" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C147" s="17">
+        <v>2001</v>
+      </c>
+      <c r="D147" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E147" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F147" s="15">
+        <v>1</v>
+      </c>
+      <c r="G147" s="15">
+        <v>1</v>
+      </c>
+      <c r="H147" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I147" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J147" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K147" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L147" s="15">
+        <v>1</v>
+      </c>
+      <c r="M147" s="15">
+        <v>1</v>
+      </c>
+      <c r="N147" s="15">
+        <v>1</v>
+      </c>
+      <c r="O147" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P147" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q147" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R147" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S147" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T147" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="17">
+        <v>2002</v>
+      </c>
+      <c r="C148" s="17">
+        <v>2003</v>
+      </c>
+      <c r="D148" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E148" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F148" s="15">
+        <v>1</v>
+      </c>
+      <c r="G148" s="15">
+        <v>1</v>
+      </c>
+      <c r="H148" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I148" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J148" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K148" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L148" s="15">
+        <v>1</v>
+      </c>
+      <c r="M148" s="15">
+        <v>1</v>
+      </c>
+      <c r="N148" s="15">
+        <v>1</v>
+      </c>
+      <c r="O148" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P148" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q148" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R148" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S148" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C149" s="17">
+        <v>2005</v>
+      </c>
+      <c r="D149" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E149" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F149" s="15">
+        <v>1</v>
+      </c>
+      <c r="G149" s="15">
+        <v>1</v>
+      </c>
+      <c r="H149" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I149" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J149" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K149" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L149" s="15">
+        <v>1</v>
+      </c>
+      <c r="M149" s="15">
+        <v>1</v>
+      </c>
+      <c r="N149" s="15">
+        <v>1</v>
+      </c>
+      <c r="O149" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P149" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q149" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R149" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S149" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T149" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="17">
+        <v>2006</v>
+      </c>
+      <c r="C150" s="17">
+        <v>2007</v>
+      </c>
+      <c r="D150" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E150" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F150" s="15">
+        <v>1</v>
+      </c>
+      <c r="G150" s="15">
+        <v>1</v>
+      </c>
+      <c r="H150" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I150" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J150" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K150" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L150" s="15">
+        <v>1</v>
+      </c>
+      <c r="M150" s="15">
+        <v>1</v>
+      </c>
+      <c r="N150" s="15">
+        <v>1</v>
+      </c>
+      <c r="O150" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P150" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q150" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R150" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S150" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T150" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C151" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D151" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E151" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F151" s="15">
+        <v>1</v>
+      </c>
+      <c r="G151" s="15">
+        <v>1</v>
+      </c>
+      <c r="H151" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I151" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J151" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K151" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L151" s="15">
+        <v>1</v>
+      </c>
+      <c r="M151" s="15">
+        <v>1</v>
+      </c>
+      <c r="N151" s="15">
+        <v>1</v>
+      </c>
+      <c r="O151" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P151" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q151" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R151" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S151" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T151" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C152" s="17">
+        <v>2011</v>
+      </c>
+      <c r="D152" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E152" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F152" s="15">
+        <v>1</v>
+      </c>
+      <c r="G152" s="15">
+        <v>1</v>
+      </c>
+      <c r="H152" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I152" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J152" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K152" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L152" s="15">
+        <v>1</v>
+      </c>
+      <c r="M152" s="15">
+        <v>1</v>
+      </c>
+      <c r="N152" s="15">
+        <v>1</v>
+      </c>
+      <c r="O152" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P152" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q152" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R152" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S152" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T152" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C153" s="17">
+        <v>2013</v>
+      </c>
+      <c r="D153" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E153" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F153" s="15">
+        <v>1</v>
+      </c>
+      <c r="G153" s="15">
+        <v>1</v>
+      </c>
+      <c r="H153" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I153" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J153" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K153" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L153" s="15">
+        <v>1</v>
+      </c>
+      <c r="M153" s="15">
+        <v>1</v>
+      </c>
+      <c r="N153" s="15">
+        <v>1</v>
+      </c>
+      <c r="O153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T153" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="17">
+        <v>2014</v>
+      </c>
+      <c r="C154" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D154" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E154" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F154" s="15">
+        <v>1</v>
+      </c>
+      <c r="G154" s="15">
+        <v>1</v>
+      </c>
+      <c r="H154" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I154" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J154" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K154" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L154" s="15">
+        <v>1</v>
+      </c>
+      <c r="M154" s="15">
+        <v>1</v>
+      </c>
+      <c r="N154" s="15">
+        <v>1</v>
+      </c>
+      <c r="O154" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P154" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q154" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R154" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S154" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T154" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="17">
+        <v>1980</v>
+      </c>
+      <c r="C155" s="17">
+        <v>1983</v>
+      </c>
+      <c r="D155" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E155" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F155" s="15">
+        <v>1</v>
+      </c>
+      <c r="G155" s="15">
+        <v>1</v>
+      </c>
+      <c r="H155" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I155" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J155" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K155" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L155" s="15">
+        <v>1</v>
+      </c>
+      <c r="M155" s="15">
+        <v>1</v>
+      </c>
+      <c r="N155" s="15">
+        <v>1</v>
+      </c>
+      <c r="O155" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P155" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q155" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R155" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S155" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T155" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B156" s="17">
+        <v>1984</v>
+      </c>
+      <c r="C156" s="17">
+        <v>1987</v>
+      </c>
+      <c r="D156" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E156" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F156" s="15">
+        <v>1</v>
+      </c>
+      <c r="G156" s="15">
+        <v>1</v>
+      </c>
+      <c r="H156" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I156" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J156" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K156" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L156" s="15">
+        <v>1</v>
+      </c>
+      <c r="M156" s="15">
+        <v>1</v>
+      </c>
+      <c r="N156" s="15">
+        <v>1</v>
+      </c>
+      <c r="O156" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P156" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q156" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R156" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S156" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T156" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" s="17">
+        <v>1988</v>
+      </c>
+      <c r="C157" s="17">
+        <v>1991</v>
+      </c>
+      <c r="D157" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E157" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F157" s="15">
+        <v>1</v>
+      </c>
+      <c r="G157" s="15">
+        <v>1</v>
+      </c>
+      <c r="H157" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I157" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J157" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K157" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L157" s="15">
+        <v>1</v>
+      </c>
+      <c r="M157" s="15">
+        <v>1</v>
+      </c>
+      <c r="N157" s="15">
+        <v>1</v>
+      </c>
+      <c r="O157" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P157" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q157" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R157" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S157" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T157" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" s="17">
+        <v>1992</v>
+      </c>
+      <c r="C158" s="17">
+        <v>1995</v>
+      </c>
+      <c r="D158" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E158" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F158" s="15">
+        <v>1</v>
+      </c>
+      <c r="G158" s="15">
+        <v>1</v>
+      </c>
+      <c r="H158" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I158" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J158" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K158" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L158" s="15">
+        <v>1</v>
+      </c>
+      <c r="M158" s="15">
+        <v>1</v>
+      </c>
+      <c r="N158" s="15">
+        <v>1</v>
+      </c>
+      <c r="O158" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P158" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q158" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R158" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S158" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T158" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B159" s="17">
+        <v>1996</v>
+      </c>
+      <c r="C159" s="17">
+        <v>1999</v>
+      </c>
+      <c r="D159" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E159" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F159" s="15">
+        <v>1</v>
+      </c>
+      <c r="G159" s="15">
+        <v>1</v>
+      </c>
+      <c r="H159" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I159" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J159" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K159" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L159" s="15">
+        <v>1</v>
+      </c>
+      <c r="M159" s="15">
+        <v>1</v>
+      </c>
+      <c r="N159" s="15">
+        <v>1</v>
+      </c>
+      <c r="O159" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P159" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q159" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R159" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S159" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T159" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B160" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C160" s="17">
+        <v>2003</v>
+      </c>
+      <c r="D160" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E160" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F160" s="15">
+        <v>1</v>
+      </c>
+      <c r="G160" s="15">
+        <v>1</v>
+      </c>
+      <c r="H160" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I160" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J160" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K160" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L160" s="15">
+        <v>1</v>
+      </c>
+      <c r="M160" s="15">
+        <v>1</v>
+      </c>
+      <c r="N160" s="15">
+        <v>1</v>
+      </c>
+      <c r="O160" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P160" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q160" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R160" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S160" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T160" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C161" s="17">
+        <v>2007</v>
+      </c>
+      <c r="D161" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E161" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F161" s="15">
+        <v>1</v>
+      </c>
+      <c r="G161" s="15">
+        <v>1</v>
+      </c>
+      <c r="H161" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I161" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J161" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K161" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L161" s="15">
+        <v>1</v>
+      </c>
+      <c r="M161" s="15">
+        <v>1</v>
+      </c>
+      <c r="N161" s="15">
+        <v>1</v>
+      </c>
+      <c r="O161" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P161" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q161" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R161" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S161" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T161" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C162" s="17">
+        <v>2011</v>
+      </c>
+      <c r="D162" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E162" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F162" s="15">
+        <v>1</v>
+      </c>
+      <c r="G162" s="15">
+        <v>1</v>
+      </c>
+      <c r="H162" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I162" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J162" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K162" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L162" s="15">
+        <v>1</v>
+      </c>
+      <c r="M162" s="15">
+        <v>1</v>
+      </c>
+      <c r="N162" s="15">
+        <v>1</v>
+      </c>
+      <c r="O162" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P162" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q162" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R162" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S162" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T162" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C163" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D163" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E163" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F163" s="15">
+        <v>1</v>
+      </c>
+      <c r="G163" s="15">
+        <v>1</v>
+      </c>
+      <c r="H163" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I163" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J163" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K163" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L163" s="15">
+        <v>1</v>
+      </c>
+      <c r="M163" s="15">
+        <v>1</v>
+      </c>
+      <c r="N163" s="15">
+        <v>1</v>
+      </c>
+      <c r="O163" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P163" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q163" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R163" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S163" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T163" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" s="11"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6DB5CD-D94B-4B41-A6BF-B5067944CC33}">
+  <dimension ref="A1:T113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C101" s="12">
+        <v>2006</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1</v>
+      </c>
+      <c r="M101" s="15">
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <v>1</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1980</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F102" s="15">
+        <v>1</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+      <c r="H102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L102" s="15">
+        <v>1</v>
+      </c>
+      <c r="M102" s="15">
+        <v>1</v>
+      </c>
+      <c r="N102" s="15">
+        <v>1</v>
+      </c>
+      <c r="O102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C103" s="12">
+        <v>1981</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F103" s="15">
+        <v>1</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+      <c r="H103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L103" s="15">
+        <v>1</v>
+      </c>
+      <c r="M103" s="15">
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <v>1</v>
+      </c>
+      <c r="O103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C104" s="12">
+        <v>1983</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F104" s="15">
+        <v>1</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+      <c r="H104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L104" s="15">
+        <v>1</v>
+      </c>
+      <c r="M104" s="15">
+        <v>1</v>
+      </c>
+      <c r="N104" s="15">
+        <v>1</v>
+      </c>
+      <c r="O104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C105" s="12">
+        <v>1987</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F105" s="15">
+        <v>1</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+      <c r="H105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L105" s="15">
+        <v>1</v>
+      </c>
+      <c r="M105" s="15">
+        <v>1</v>
+      </c>
+      <c r="N105" s="15">
+        <v>1</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="11"/>
+    </row>
+    <row r="110" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C110" s="12">
+        <v>1995</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F110" s="15">
+        <v>1</v>
+      </c>
+      <c r="G110" s="15">
+        <v>1</v>
+      </c>
+      <c r="H110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L110" s="15">
+        <v>1</v>
+      </c>
+      <c r="M110" s="15">
+        <v>1</v>
+      </c>
+      <c r="N110" s="15">
+        <v>1</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T110" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C111" s="12">
+        <v>2011</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F111" s="15">
+        <v>1</v>
+      </c>
+      <c r="G111" s="15">
+        <v>1</v>
+      </c>
+      <c r="H111" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I111" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J111" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L111" s="15">
+        <v>1</v>
+      </c>
+      <c r="M111" s="15">
+        <v>1</v>
+      </c>
+      <c r="N111" s="15">
+        <v>1</v>
+      </c>
+      <c r="O111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T111" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8DEE5D-D4A0-4BC5-A916-79B06806B187}">
   <dimension ref="A1:F108"/>
   <sheetViews>
@@ -4225,7 +10307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907549-D3C5-4AC6-B75C-E35B549A753D}">
   <dimension ref="A1:F115"/>
   <sheetViews>
@@ -5212,7 +11294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
   <dimension ref="A1:K105"/>
   <sheetViews>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95AB9B-A775-4AE3-BFC5-BF4102856FD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09860DD-0988-4721-AAC2-4E52D4588184}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>111</v>
       </c>
@@ -8143,10 +8143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6DB5CD-D94B-4B41-A6BF-B5067944CC33}">
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+      <selection activeCell="A111" sqref="A111:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9297,142 +9297,142 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="106" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C106" s="12">
+        <v>1995</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F106" s="15">
+        <v>1</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1</v>
+      </c>
+      <c r="H106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L106" s="15">
+        <v>1</v>
+      </c>
+      <c r="M106" s="15">
+        <v>1</v>
+      </c>
+      <c r="N106" s="15">
+        <v>1</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T106" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="12">
+        <v>1980</v>
+      </c>
+      <c r="C107" s="12">
+        <v>2011</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F107" s="15">
+        <v>1</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1</v>
+      </c>
+      <c r="H107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L107" s="15">
+        <v>1</v>
+      </c>
+      <c r="M107" s="15">
+        <v>1</v>
+      </c>
+      <c r="N107" s="15">
+        <v>1</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T107" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B108" s="11"/>
-    </row>
-    <row r="110" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B110" s="12">
-        <v>1980</v>
-      </c>
-      <c r="C110" s="12">
-        <v>1995</v>
-      </c>
-      <c r="D110" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E110" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F110" s="15">
-        <v>1</v>
-      </c>
-      <c r="G110" s="15">
-        <v>1</v>
-      </c>
-      <c r="H110" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I110" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J110" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K110" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L110" s="15">
-        <v>1</v>
-      </c>
-      <c r="M110" s="15">
-        <v>1</v>
-      </c>
-      <c r="N110" s="15">
-        <v>1</v>
-      </c>
-      <c r="O110" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P110" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q110" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R110" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S110" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T110" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B111" s="12">
-        <v>1980</v>
-      </c>
-      <c r="C111" s="12">
-        <v>2011</v>
-      </c>
-      <c r="D111" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E111" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F111" s="15">
-        <v>1</v>
-      </c>
-      <c r="G111" s="15">
-        <v>1</v>
-      </c>
-      <c r="H111" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I111" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J111" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K111" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L111" s="15">
-        <v>1</v>
-      </c>
-      <c r="M111" s="15">
-        <v>1</v>
-      </c>
-      <c r="N111" s="15">
-        <v>1</v>
-      </c>
-      <c r="O111" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P111" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q111" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R111" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S111" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T111" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B109" s="11"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/case_input.xlsx
+++ b/case_input.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\Google Drive\git\SEM-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09860DD-0988-4721-AAC2-4E52D4588184}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC317B-CF45-4EDA-BB76-E0BC12B31B15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25545" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
     <sheet name="base+test" sheetId="8" r:id="rId2"/>
-    <sheet name="year test 1-4" sheetId="9" r:id="rId3"/>
-    <sheet name="year test test" sheetId="10" r:id="rId4"/>
-    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId5"/>
-    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId6"/>
-    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId7"/>
+    <sheet name="year test 1" sheetId="11" r:id="rId3"/>
+    <sheet name="year test 2" sheetId="12" r:id="rId4"/>
+    <sheet name="year test 4" sheetId="9" r:id="rId5"/>
+    <sheet name="year test test" sheetId="10" r:id="rId6"/>
+    <sheet name="3 days solar only gas only" sheetId="7" r:id="rId7"/>
+    <sheet name="1 gen tech at a time" sheetId="6" r:id="rId8"/>
+    <sheet name="2xNG,1W,0.75nuc0.25PGP0.5rest" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="161">
   <si>
     <t>This file is documentation for the input data format for the case definition file, used as input for the Simple Energy Model v 1.0</t>
   </si>
@@ -507,6 +509,15 @@
   </si>
   <si>
     <t>When these values are entered for cases below, they are not scaled but entered as they should be used.</t>
+  </si>
+  <si>
+    <t>year_test_01</t>
+  </si>
+  <si>
+    <t>year_test_02</t>
+  </si>
+  <si>
+    <t>year_test_04</t>
   </si>
 </sst>
 </file>
@@ -3320,11 +3331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99D15FE-36A1-49F1-8B4C-C549C51F779B}">
-  <dimension ref="A1:T169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F1F5E-6617-4EDE-A41B-EADB501C3C26}">
+  <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C65"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3544,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -6446,1692 +6457,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137" s="17">
-        <v>1980</v>
-      </c>
-      <c r="C137" s="17">
-        <v>1981</v>
-      </c>
-      <c r="D137" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E137" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F137" s="15">
-        <v>1</v>
-      </c>
-      <c r="G137" s="15">
-        <v>1</v>
-      </c>
-      <c r="H137" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I137" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J137" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K137" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L137" s="15">
-        <v>1</v>
-      </c>
-      <c r="M137" s="15">
-        <v>1</v>
-      </c>
-      <c r="N137" s="15">
-        <v>1</v>
-      </c>
-      <c r="O137" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P137" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q137" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R137" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S137" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T137" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B138" s="17">
-        <v>1982</v>
-      </c>
-      <c r="C138" s="17">
-        <v>1983</v>
-      </c>
-      <c r="D138" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E138" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F138" s="15">
-        <v>1</v>
-      </c>
-      <c r="G138" s="15">
-        <v>1</v>
-      </c>
-      <c r="H138" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I138" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J138" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K138" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L138" s="15">
-        <v>1</v>
-      </c>
-      <c r="M138" s="15">
-        <v>1</v>
-      </c>
-      <c r="N138" s="15">
-        <v>1</v>
-      </c>
-      <c r="O138" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P138" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q138" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R138" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S138" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T138" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B139" s="17">
-        <v>1984</v>
-      </c>
-      <c r="C139" s="17">
-        <v>1985</v>
-      </c>
-      <c r="D139" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E139" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F139" s="15">
-        <v>1</v>
-      </c>
-      <c r="G139" s="15">
-        <v>1</v>
-      </c>
-      <c r="H139" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I139" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J139" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K139" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L139" s="15">
-        <v>1</v>
-      </c>
-      <c r="M139" s="15">
-        <v>1</v>
-      </c>
-      <c r="N139" s="15">
-        <v>1</v>
-      </c>
-      <c r="O139" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P139" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q139" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R139" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S139" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T139" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B140" s="17">
-        <v>1986</v>
-      </c>
-      <c r="C140" s="17">
-        <v>1987</v>
-      </c>
-      <c r="D140" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E140" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F140" s="15">
-        <v>1</v>
-      </c>
-      <c r="G140" s="15">
-        <v>1</v>
-      </c>
-      <c r="H140" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I140" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J140" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K140" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L140" s="15">
-        <v>1</v>
-      </c>
-      <c r="M140" s="15">
-        <v>1</v>
-      </c>
-      <c r="N140" s="15">
-        <v>1</v>
-      </c>
-      <c r="O140" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P140" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q140" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R140" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S140" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T140" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B141" s="17">
-        <v>1988</v>
-      </c>
-      <c r="C141" s="17">
-        <v>1989</v>
-      </c>
-      <c r="D141" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E141" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F141" s="15">
-        <v>1</v>
-      </c>
-      <c r="G141" s="15">
-        <v>1</v>
-      </c>
-      <c r="H141" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I141" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J141" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K141" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L141" s="15">
-        <v>1</v>
-      </c>
-      <c r="M141" s="15">
-        <v>1</v>
-      </c>
-      <c r="N141" s="15">
-        <v>1</v>
-      </c>
-      <c r="O141" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P141" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q141" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R141" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S141" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T141" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B142" s="17">
-        <v>1990</v>
-      </c>
-      <c r="C142" s="17">
-        <v>1991</v>
-      </c>
-      <c r="D142" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E142" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F142" s="15">
-        <v>1</v>
-      </c>
-      <c r="G142" s="15">
-        <v>1</v>
-      </c>
-      <c r="H142" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I142" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J142" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K142" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L142" s="15">
-        <v>1</v>
-      </c>
-      <c r="M142" s="15">
-        <v>1</v>
-      </c>
-      <c r="N142" s="15">
-        <v>1</v>
-      </c>
-      <c r="O142" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P142" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q142" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R142" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S142" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T142" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B143" s="17">
-        <v>1992</v>
-      </c>
-      <c r="C143" s="17">
-        <v>1993</v>
-      </c>
-      <c r="D143" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E143" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F143" s="15">
-        <v>1</v>
-      </c>
-      <c r="G143" s="15">
-        <v>1</v>
-      </c>
-      <c r="H143" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I143" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J143" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K143" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L143" s="15">
-        <v>1</v>
-      </c>
-      <c r="M143" s="15">
-        <v>1</v>
-      </c>
-      <c r="N143" s="15">
-        <v>1</v>
-      </c>
-      <c r="O143" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P143" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q143" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R143" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S143" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T143" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B144" s="17">
-        <v>1994</v>
-      </c>
-      <c r="C144" s="17">
-        <v>1995</v>
-      </c>
-      <c r="D144" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E144" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F144" s="15">
-        <v>1</v>
-      </c>
-      <c r="G144" s="15">
-        <v>1</v>
-      </c>
-      <c r="H144" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I144" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J144" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K144" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L144" s="15">
-        <v>1</v>
-      </c>
-      <c r="M144" s="15">
-        <v>1</v>
-      </c>
-      <c r="N144" s="15">
-        <v>1</v>
-      </c>
-      <c r="O144" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P144" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q144" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R144" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S144" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T144" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B145" s="17">
-        <v>1996</v>
-      </c>
-      <c r="C145" s="17">
-        <v>1997</v>
-      </c>
-      <c r="D145" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E145" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F145" s="15">
-        <v>1</v>
-      </c>
-      <c r="G145" s="15">
-        <v>1</v>
-      </c>
-      <c r="H145" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I145" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J145" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K145" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L145" s="15">
-        <v>1</v>
-      </c>
-      <c r="M145" s="15">
-        <v>1</v>
-      </c>
-      <c r="N145" s="15">
-        <v>1</v>
-      </c>
-      <c r="O145" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P145" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q145" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R145" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S145" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T145" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B146" s="17">
-        <v>1998</v>
-      </c>
-      <c r="C146" s="17">
-        <v>1999</v>
-      </c>
-      <c r="D146" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E146" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F146" s="15">
-        <v>1</v>
-      </c>
-      <c r="G146" s="15">
-        <v>1</v>
-      </c>
-      <c r="H146" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I146" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J146" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K146" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L146" s="15">
-        <v>1</v>
-      </c>
-      <c r="M146" s="15">
-        <v>1</v>
-      </c>
-      <c r="N146" s="15">
-        <v>1</v>
-      </c>
-      <c r="O146" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P146" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q146" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R146" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S146" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T146" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C147" s="17">
-        <v>2001</v>
-      </c>
-      <c r="D147" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E147" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F147" s="15">
-        <v>1</v>
-      </c>
-      <c r="G147" s="15">
-        <v>1</v>
-      </c>
-      <c r="H147" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I147" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J147" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K147" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L147" s="15">
-        <v>1</v>
-      </c>
-      <c r="M147" s="15">
-        <v>1</v>
-      </c>
-      <c r="N147" s="15">
-        <v>1</v>
-      </c>
-      <c r="O147" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P147" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q147" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R147" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S147" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T147" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="17">
-        <v>2002</v>
-      </c>
-      <c r="C148" s="17">
-        <v>2003</v>
-      </c>
-      <c r="D148" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E148" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F148" s="15">
-        <v>1</v>
-      </c>
-      <c r="G148" s="15">
-        <v>1</v>
-      </c>
-      <c r="H148" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I148" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J148" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K148" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L148" s="15">
-        <v>1</v>
-      </c>
-      <c r="M148" s="15">
-        <v>1</v>
-      </c>
-      <c r="N148" s="15">
-        <v>1</v>
-      </c>
-      <c r="O148" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P148" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q148" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R148" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S148" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T148" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B149" s="17">
-        <v>2004</v>
-      </c>
-      <c r="C149" s="17">
-        <v>2005</v>
-      </c>
-      <c r="D149" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E149" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F149" s="15">
-        <v>1</v>
-      </c>
-      <c r="G149" s="15">
-        <v>1</v>
-      </c>
-      <c r="H149" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I149" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J149" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K149" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L149" s="15">
-        <v>1</v>
-      </c>
-      <c r="M149" s="15">
-        <v>1</v>
-      </c>
-      <c r="N149" s="15">
-        <v>1</v>
-      </c>
-      <c r="O149" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P149" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q149" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R149" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S149" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T149" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="17">
-        <v>2006</v>
-      </c>
-      <c r="C150" s="17">
-        <v>2007</v>
-      </c>
-      <c r="D150" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E150" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F150" s="15">
-        <v>1</v>
-      </c>
-      <c r="G150" s="15">
-        <v>1</v>
-      </c>
-      <c r="H150" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I150" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J150" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K150" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L150" s="15">
-        <v>1</v>
-      </c>
-      <c r="M150" s="15">
-        <v>1</v>
-      </c>
-      <c r="N150" s="15">
-        <v>1</v>
-      </c>
-      <c r="O150" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P150" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q150" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R150" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S150" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T150" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" s="17">
-        <v>2008</v>
-      </c>
-      <c r="C151" s="17">
-        <v>2009</v>
-      </c>
-      <c r="D151" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E151" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F151" s="15">
-        <v>1</v>
-      </c>
-      <c r="G151" s="15">
-        <v>1</v>
-      </c>
-      <c r="H151" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I151" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J151" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K151" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L151" s="15">
-        <v>1</v>
-      </c>
-      <c r="M151" s="15">
-        <v>1</v>
-      </c>
-      <c r="N151" s="15">
-        <v>1</v>
-      </c>
-      <c r="O151" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P151" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q151" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R151" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S151" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T151" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B152" s="17">
-        <v>2010</v>
-      </c>
-      <c r="C152" s="17">
-        <v>2011</v>
-      </c>
-      <c r="D152" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E152" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F152" s="15">
-        <v>1</v>
-      </c>
-      <c r="G152" s="15">
-        <v>1</v>
-      </c>
-      <c r="H152" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I152" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J152" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K152" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L152" s="15">
-        <v>1</v>
-      </c>
-      <c r="M152" s="15">
-        <v>1</v>
-      </c>
-      <c r="N152" s="15">
-        <v>1</v>
-      </c>
-      <c r="O152" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P152" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q152" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R152" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S152" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T152" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B153" s="17">
-        <v>2012</v>
-      </c>
-      <c r="C153" s="17">
-        <v>2013</v>
-      </c>
-      <c r="D153" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E153" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F153" s="15">
-        <v>1</v>
-      </c>
-      <c r="G153" s="15">
-        <v>1</v>
-      </c>
-      <c r="H153" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I153" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J153" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K153" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L153" s="15">
-        <v>1</v>
-      </c>
-      <c r="M153" s="15">
-        <v>1</v>
-      </c>
-      <c r="N153" s="15">
-        <v>1</v>
-      </c>
-      <c r="O153" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P153" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q153" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R153" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S153" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T153" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B154" s="17">
-        <v>2014</v>
-      </c>
-      <c r="C154" s="17">
-        <v>2015</v>
-      </c>
-      <c r="D154" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E154" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F154" s="15">
-        <v>1</v>
-      </c>
-      <c r="G154" s="15">
-        <v>1</v>
-      </c>
-      <c r="H154" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I154" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J154" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K154" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L154" s="15">
-        <v>1</v>
-      </c>
-      <c r="M154" s="15">
-        <v>1</v>
-      </c>
-      <c r="N154" s="15">
-        <v>1</v>
-      </c>
-      <c r="O154" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P154" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q154" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R154" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S154" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T154" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B155" s="17">
-        <v>1980</v>
-      </c>
-      <c r="C155" s="17">
-        <v>1983</v>
-      </c>
-      <c r="D155" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E155" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F155" s="15">
-        <v>1</v>
-      </c>
-      <c r="G155" s="15">
-        <v>1</v>
-      </c>
-      <c r="H155" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I155" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J155" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K155" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L155" s="15">
-        <v>1</v>
-      </c>
-      <c r="M155" s="15">
-        <v>1</v>
-      </c>
-      <c r="N155" s="15">
-        <v>1</v>
-      </c>
-      <c r="O155" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P155" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q155" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R155" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S155" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T155" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B156" s="17">
-        <v>1984</v>
-      </c>
-      <c r="C156" s="17">
-        <v>1987</v>
-      </c>
-      <c r="D156" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E156" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F156" s="15">
-        <v>1</v>
-      </c>
-      <c r="G156" s="15">
-        <v>1</v>
-      </c>
-      <c r="H156" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I156" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J156" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K156" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L156" s="15">
-        <v>1</v>
-      </c>
-      <c r="M156" s="15">
-        <v>1</v>
-      </c>
-      <c r="N156" s="15">
-        <v>1</v>
-      </c>
-      <c r="O156" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P156" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q156" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R156" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S156" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T156" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="17">
-        <v>1988</v>
-      </c>
-      <c r="C157" s="17">
-        <v>1991</v>
-      </c>
-      <c r="D157" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E157" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F157" s="15">
-        <v>1</v>
-      </c>
-      <c r="G157" s="15">
-        <v>1</v>
-      </c>
-      <c r="H157" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I157" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J157" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K157" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L157" s="15">
-        <v>1</v>
-      </c>
-      <c r="M157" s="15">
-        <v>1</v>
-      </c>
-      <c r="N157" s="15">
-        <v>1</v>
-      </c>
-      <c r="O157" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P157" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q157" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R157" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S157" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T157" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B158" s="17">
-        <v>1992</v>
-      </c>
-      <c r="C158" s="17">
-        <v>1995</v>
-      </c>
-      <c r="D158" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E158" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F158" s="15">
-        <v>1</v>
-      </c>
-      <c r="G158" s="15">
-        <v>1</v>
-      </c>
-      <c r="H158" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I158" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J158" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K158" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L158" s="15">
-        <v>1</v>
-      </c>
-      <c r="M158" s="15">
-        <v>1</v>
-      </c>
-      <c r="N158" s="15">
-        <v>1</v>
-      </c>
-      <c r="O158" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P158" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q158" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R158" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S158" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T158" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B159" s="17">
-        <v>1996</v>
-      </c>
-      <c r="C159" s="17">
-        <v>1999</v>
-      </c>
-      <c r="D159" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E159" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F159" s="15">
-        <v>1</v>
-      </c>
-      <c r="G159" s="15">
-        <v>1</v>
-      </c>
-      <c r="H159" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I159" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J159" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K159" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L159" s="15">
-        <v>1</v>
-      </c>
-      <c r="M159" s="15">
-        <v>1</v>
-      </c>
-      <c r="N159" s="15">
-        <v>1</v>
-      </c>
-      <c r="O159" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P159" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q159" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R159" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S159" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T159" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B160" s="17">
-        <v>2000</v>
-      </c>
-      <c r="C160" s="17">
-        <v>2003</v>
-      </c>
-      <c r="D160" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E160" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F160" s="15">
-        <v>1</v>
-      </c>
-      <c r="G160" s="15">
-        <v>1</v>
-      </c>
-      <c r="H160" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I160" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J160" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K160" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L160" s="15">
-        <v>1</v>
-      </c>
-      <c r="M160" s="15">
-        <v>1</v>
-      </c>
-      <c r="N160" s="15">
-        <v>1</v>
-      </c>
-      <c r="O160" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P160" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q160" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R160" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S160" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T160" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B161" s="17">
-        <v>2004</v>
-      </c>
-      <c r="C161" s="17">
-        <v>2007</v>
-      </c>
-      <c r="D161" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E161" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F161" s="15">
-        <v>1</v>
-      </c>
-      <c r="G161" s="15">
-        <v>1</v>
-      </c>
-      <c r="H161" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I161" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J161" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K161" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L161" s="15">
-        <v>1</v>
-      </c>
-      <c r="M161" s="15">
-        <v>1</v>
-      </c>
-      <c r="N161" s="15">
-        <v>1</v>
-      </c>
-      <c r="O161" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P161" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q161" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R161" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S161" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T161" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B162" s="17">
-        <v>2008</v>
-      </c>
-      <c r="C162" s="17">
-        <v>2011</v>
-      </c>
-      <c r="D162" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E162" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F162" s="15">
-        <v>1</v>
-      </c>
-      <c r="G162" s="15">
-        <v>1</v>
-      </c>
-      <c r="H162" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I162" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J162" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K162" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L162" s="15">
-        <v>1</v>
-      </c>
-      <c r="M162" s="15">
-        <v>1</v>
-      </c>
-      <c r="N162" s="15">
-        <v>1</v>
-      </c>
-      <c r="O162" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P162" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q162" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R162" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S162" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T162" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B163" s="17">
-        <v>2012</v>
-      </c>
-      <c r="C163" s="17">
-        <v>2015</v>
-      </c>
-      <c r="D163" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E163" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F163" s="15">
-        <v>1</v>
-      </c>
-      <c r="G163" s="15">
-        <v>1</v>
-      </c>
-      <c r="H163" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I163" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J163" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="K163" s="15">
-        <v>0.86666600000000005</v>
-      </c>
-      <c r="L163" s="15">
-        <v>1</v>
-      </c>
-      <c r="M163" s="15">
-        <v>1</v>
-      </c>
-      <c r="N163" s="15">
-        <v>1</v>
-      </c>
-      <c r="O163" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="P163" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Q163" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R163" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S163" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T163" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
-      <c r="D164" s="10"/>
-    </row>
-    <row r="165" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="D137" s="10"/>
+    </row>
+    <row r="138" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B165" s="11"/>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="B138" s="11"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8142,10 +6479,3446 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9168AAF6-B727-4109-99F8-D67A30F9A0B6}">
+  <dimension ref="A1:T124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="17">
+        <v>1980</v>
+      </c>
+      <c r="C101" s="17">
+        <v>1981</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1</v>
+      </c>
+      <c r="M101" s="15">
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <v>1</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="17">
+        <v>1982</v>
+      </c>
+      <c r="C102" s="17">
+        <v>1983</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F102" s="15">
+        <v>1</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+      <c r="H102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L102" s="15">
+        <v>1</v>
+      </c>
+      <c r="M102" s="15">
+        <v>1</v>
+      </c>
+      <c r="N102" s="15">
+        <v>1</v>
+      </c>
+      <c r="O102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="17">
+        <v>1984</v>
+      </c>
+      <c r="C103" s="17">
+        <v>1985</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F103" s="15">
+        <v>1</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+      <c r="H103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L103" s="15">
+        <v>1</v>
+      </c>
+      <c r="M103" s="15">
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <v>1</v>
+      </c>
+      <c r="O103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="17">
+        <v>1986</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1987</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F104" s="15">
+        <v>1</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+      <c r="H104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L104" s="15">
+        <v>1</v>
+      </c>
+      <c r="M104" s="15">
+        <v>1</v>
+      </c>
+      <c r="N104" s="15">
+        <v>1</v>
+      </c>
+      <c r="O104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="17">
+        <v>1988</v>
+      </c>
+      <c r="C105" s="17">
+        <v>1989</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F105" s="15">
+        <v>1</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+      <c r="H105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L105" s="15">
+        <v>1</v>
+      </c>
+      <c r="M105" s="15">
+        <v>1</v>
+      </c>
+      <c r="N105" s="15">
+        <v>1</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="17">
+        <v>1990</v>
+      </c>
+      <c r="C106" s="17">
+        <v>1991</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F106" s="15">
+        <v>1</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1</v>
+      </c>
+      <c r="H106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L106" s="15">
+        <v>1</v>
+      </c>
+      <c r="M106" s="15">
+        <v>1</v>
+      </c>
+      <c r="N106" s="15">
+        <v>1</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T106" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="17">
+        <v>1992</v>
+      </c>
+      <c r="C107" s="17">
+        <v>1993</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F107" s="15">
+        <v>1</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1</v>
+      </c>
+      <c r="H107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L107" s="15">
+        <v>1</v>
+      </c>
+      <c r="M107" s="15">
+        <v>1</v>
+      </c>
+      <c r="N107" s="15">
+        <v>1</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T107" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="17">
+        <v>1994</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1995</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F108" s="15">
+        <v>1</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1</v>
+      </c>
+      <c r="H108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J108" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K108" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L108" s="15">
+        <v>1</v>
+      </c>
+      <c r="M108" s="15">
+        <v>1</v>
+      </c>
+      <c r="N108" s="15">
+        <v>1</v>
+      </c>
+      <c r="O108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T108" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="17">
+        <v>1996</v>
+      </c>
+      <c r="C109" s="17">
+        <v>1997</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F109" s="15">
+        <v>1</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1</v>
+      </c>
+      <c r="H109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J109" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K109" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L109" s="15">
+        <v>1</v>
+      </c>
+      <c r="M109" s="15">
+        <v>1</v>
+      </c>
+      <c r="N109" s="15">
+        <v>1</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T109" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="17">
+        <v>1998</v>
+      </c>
+      <c r="C110" s="17">
+        <v>1999</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E110" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F110" s="15">
+        <v>1</v>
+      </c>
+      <c r="G110" s="15">
+        <v>1</v>
+      </c>
+      <c r="H110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I110" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K110" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L110" s="15">
+        <v>1</v>
+      </c>
+      <c r="M110" s="15">
+        <v>1</v>
+      </c>
+      <c r="N110" s="15">
+        <v>1</v>
+      </c>
+      <c r="O110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T110" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C111" s="17">
+        <v>2001</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E111" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F111" s="15">
+        <v>1</v>
+      </c>
+      <c r="G111" s="15">
+        <v>1</v>
+      </c>
+      <c r="H111" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I111" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J111" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K111" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L111" s="15">
+        <v>1</v>
+      </c>
+      <c r="M111" s="15">
+        <v>1</v>
+      </c>
+      <c r="N111" s="15">
+        <v>1</v>
+      </c>
+      <c r="O111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T111" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="17">
+        <v>2002</v>
+      </c>
+      <c r="C112" s="17">
+        <v>2003</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E112" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F112" s="15">
+        <v>1</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1</v>
+      </c>
+      <c r="H112" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I112" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J112" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K112" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L112" s="15">
+        <v>1</v>
+      </c>
+      <c r="M112" s="15">
+        <v>1</v>
+      </c>
+      <c r="N112" s="15">
+        <v>1</v>
+      </c>
+      <c r="O112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T112" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C113" s="17">
+        <v>2005</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E113" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F113" s="15">
+        <v>1</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1</v>
+      </c>
+      <c r="H113" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I113" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J113" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K113" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L113" s="15">
+        <v>1</v>
+      </c>
+      <c r="M113" s="15">
+        <v>1</v>
+      </c>
+      <c r="N113" s="15">
+        <v>1</v>
+      </c>
+      <c r="O113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T113" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="17">
+        <v>2006</v>
+      </c>
+      <c r="C114" s="17">
+        <v>2007</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E114" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F114" s="15">
+        <v>1</v>
+      </c>
+      <c r="G114" s="15">
+        <v>1</v>
+      </c>
+      <c r="H114" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I114" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J114" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K114" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L114" s="15">
+        <v>1</v>
+      </c>
+      <c r="M114" s="15">
+        <v>1</v>
+      </c>
+      <c r="N114" s="15">
+        <v>1</v>
+      </c>
+      <c r="O114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T114" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C115" s="17">
+        <v>2009</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E115" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F115" s="15">
+        <v>1</v>
+      </c>
+      <c r="G115" s="15">
+        <v>1</v>
+      </c>
+      <c r="H115" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I115" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J115" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K115" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L115" s="15">
+        <v>1</v>
+      </c>
+      <c r="M115" s="15">
+        <v>1</v>
+      </c>
+      <c r="N115" s="15">
+        <v>1</v>
+      </c>
+      <c r="O115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T115" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="17">
+        <v>2010</v>
+      </c>
+      <c r="C116" s="17">
+        <v>2011</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E116" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F116" s="15">
+        <v>1</v>
+      </c>
+      <c r="G116" s="15">
+        <v>1</v>
+      </c>
+      <c r="H116" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I116" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J116" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K116" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L116" s="15">
+        <v>1</v>
+      </c>
+      <c r="M116" s="15">
+        <v>1</v>
+      </c>
+      <c r="N116" s="15">
+        <v>1</v>
+      </c>
+      <c r="O116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T116" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C117" s="17">
+        <v>2013</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E117" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F117" s="15">
+        <v>1</v>
+      </c>
+      <c r="G117" s="15">
+        <v>1</v>
+      </c>
+      <c r="H117" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I117" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J117" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K117" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L117" s="15">
+        <v>1</v>
+      </c>
+      <c r="M117" s="15">
+        <v>1</v>
+      </c>
+      <c r="N117" s="15">
+        <v>1</v>
+      </c>
+      <c r="O117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T117" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="17">
+        <v>2014</v>
+      </c>
+      <c r="C118" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E118" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F118" s="15">
+        <v>1</v>
+      </c>
+      <c r="G118" s="15">
+        <v>1</v>
+      </c>
+      <c r="H118" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I118" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J118" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K118" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L118" s="15">
+        <v>1</v>
+      </c>
+      <c r="M118" s="15">
+        <v>1</v>
+      </c>
+      <c r="N118" s="15">
+        <v>1</v>
+      </c>
+      <c r="O118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T118" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="11"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99D15FE-36A1-49F1-8B4C-C549C51F779B}">
+  <dimension ref="A1:T115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="12">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="12">
+        <v>31</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="12">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1.9528741509529837E-2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="13">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2.0648572594225215E-2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2E-8</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.1841887362491711E-2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="14">
+        <v>2.2590009128958689E-2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.2433901191501419E-2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="14">
+        <v>2.5158160216169324E-2</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12">
+        <f>261*0.08/8760</f>
+        <v>2.3835616438356165E-3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="12">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1">
+        <v>7.3048000000000002E-3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="12">
+        <f>0.3*0.08/8760</f>
+        <v>2.7397260273972604E-6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="12">
+        <f>1100*0.08/8760</f>
+        <v>1.0045662100456621E-2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="12">
+        <f>4600*0.08/8760</f>
+        <v>4.2009132420091327E-2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="12">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="12">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="17">
+        <v>1980</v>
+      </c>
+      <c r="C101" s="17">
+        <v>1983</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E101" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I101" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K101" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1</v>
+      </c>
+      <c r="M101" s="15">
+        <v>1</v>
+      </c>
+      <c r="N101" s="15">
+        <v>1</v>
+      </c>
+      <c r="O101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S101" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="17">
+        <v>1984</v>
+      </c>
+      <c r="C102" s="17">
+        <v>1987</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E102" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F102" s="15">
+        <v>1</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+      <c r="H102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I102" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K102" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L102" s="15">
+        <v>1</v>
+      </c>
+      <c r="M102" s="15">
+        <v>1</v>
+      </c>
+      <c r="N102" s="15">
+        <v>1</v>
+      </c>
+      <c r="O102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S102" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="17">
+        <v>1988</v>
+      </c>
+      <c r="C103" s="17">
+        <v>1991</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E103" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F103" s="15">
+        <v>1</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+      <c r="H103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I103" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K103" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L103" s="15">
+        <v>1</v>
+      </c>
+      <c r="M103" s="15">
+        <v>1</v>
+      </c>
+      <c r="N103" s="15">
+        <v>1</v>
+      </c>
+      <c r="O103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="17">
+        <v>1992</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1995</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F104" s="15">
+        <v>1</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+      <c r="H104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I104" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L104" s="15">
+        <v>1</v>
+      </c>
+      <c r="M104" s="15">
+        <v>1</v>
+      </c>
+      <c r="N104" s="15">
+        <v>1</v>
+      </c>
+      <c r="O104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="17">
+        <v>1996</v>
+      </c>
+      <c r="C105" s="17">
+        <v>1999</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E105" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F105" s="15">
+        <v>1</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+      <c r="H105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I105" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K105" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L105" s="15">
+        <v>1</v>
+      </c>
+      <c r="M105" s="15">
+        <v>1</v>
+      </c>
+      <c r="N105" s="15">
+        <v>1</v>
+      </c>
+      <c r="O105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C106" s="17">
+        <v>2003</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F106" s="15">
+        <v>1</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1</v>
+      </c>
+      <c r="H106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I106" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K106" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L106" s="15">
+        <v>1</v>
+      </c>
+      <c r="M106" s="15">
+        <v>1</v>
+      </c>
+      <c r="N106" s="15">
+        <v>1</v>
+      </c>
+      <c r="O106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T106" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C107" s="17">
+        <v>2007</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F107" s="15">
+        <v>1</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1</v>
+      </c>
+      <c r="H107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I107" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K107" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L107" s="15">
+        <v>1</v>
+      </c>
+      <c r="M107" s="15">
+        <v>1</v>
+      </c>
+      <c r="N107" s="15">
+        <v>1</v>
+      </c>
+      <c r="O107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T107" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C108" s="17">
+        <v>2011</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F108" s="15">
+        <v>1</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1</v>
+      </c>
+      <c r="H108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I108" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J108" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K108" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L108" s="15">
+        <v>1</v>
+      </c>
+      <c r="M108" s="15">
+        <v>1</v>
+      </c>
+      <c r="N108" s="15">
+        <v>1</v>
+      </c>
+      <c r="O108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T108" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C109" s="17">
+        <v>2015</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E109" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F109" s="15">
+        <v>1</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1</v>
+      </c>
+      <c r="H109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I109" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J109" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="K109" s="15">
+        <v>0.86666600000000005</v>
+      </c>
+      <c r="L109" s="15">
+        <v>1</v>
+      </c>
+      <c r="M109" s="15">
+        <v>1</v>
+      </c>
+      <c r="N109" s="15">
+        <v>1</v>
+      </c>
+      <c r="O109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T109" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="11"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6DB5CD-D94B-4B41-A6BF-B5067944CC33}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A111" sqref="A111:XFD112"/>
     </sheetView>
   </sheetViews>
@@ -9442,7 +11215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8DEE5D-D4A0-4BC5-A916-79B06806B187}">
   <dimension ref="A1:F108"/>
   <sheetViews>
@@ -10307,7 +12080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907549-D3C5-4AC6-B75C-E35B549A753D}">
   <dimension ref="A1:F115"/>
   <sheetViews>
@@ -11294,7 +13067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC5700-3688-4C40-8F9B-311966CABDFC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
